--- a/dimension_reduction/PrincipalComponentAnalysis_results.xlsx
+++ b/dimension_reduction/PrincipalComponentAnalysis_results.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasmuskrebs/Documents/School/master_thesis/repo/dimension_reduction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{826410B5-9CD7-2E4B-BB00-B15FD590C32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9E045F-02FE-224F-9487-66A428669B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68980" yWindow="-3520" windowWidth="34400" windowHeight="28300" xr2:uid="{C8214493-C4A5-054C-B17C-3B65FE6FA079}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19980" xr2:uid="{C8214493-C4A5-054C-B17C-3B65FE6FA079}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,40 @@
     <author>Rasmus Krebs</author>
   </authors>
   <commentList>
-    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{B243B211-C05D-D24E-98F9-8F82D442F9A7}">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{0B681E98-EEED-644D-95AD-67647CB56E3A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rasmus Krebs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Misses relevant import statements for StandardScaler and Pandas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{B243B211-C05D-D24E-98F9-8F82D442F9A7}">
       <text>
         <r>
           <rPr>
@@ -75,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{69826D25-6C4D-6148-B46B-2D814D9CE30A}">
+    <comment ref="S24" authorId="0" shapeId="0" xr:uid="{1E7FC892-145D-4244-937C-7E6C212761B1}">
       <text>
         <r>
           <rPr>
@@ -104,7 +137,42 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Average for both SVD and Eigen is used. Suggeted code was not a class with both svd and eigen included as methods, like the others</t>
+          <t xml:space="preserve">Called on methods, can't be called on class. Also fit_transform have been omitted, as this just calls fit+transform
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V24" authorId="0" shapeId="0" xr:uid="{7025C84F-AB96-0A4E-BD7B-8085AE631777}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rasmus Krebs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Called on methods, can't be called on class. Also fit_transform have been omitted, as this just calls fit+transform
+</t>
         </r>
       </text>
     </comment>
@@ -113,7 +181,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+  <si>
+    <t>GPT 3.5</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
   <si>
     <t>Metric</t>
   </si>
@@ -121,15 +195,6 @@
     <t>Framework</t>
   </si>
   <si>
-    <t>GPT 3.5 (S)</t>
-  </si>
-  <si>
-    <t>GPT 3.5 (M)</t>
-  </si>
-  <si>
-    <t>GPT 3.5 (L)</t>
-  </si>
-  <si>
     <t>flake8</t>
   </si>
   <si>
@@ -202,9 +267,6 @@
     <t>Baseline</t>
   </si>
   <si>
-    <t>Models</t>
-  </si>
-  <si>
     <t>Measurement</t>
   </si>
   <si>
@@ -218,13 +280,37 @@
   </si>
   <si>
     <t>TM /L</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>GPT 4</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Gemini/Bard</t>
+  </si>
+  <si>
+    <t>DeepSeeker-Coder</t>
+  </si>
+  <si>
+    <t>Codex</t>
+  </si>
+  <si>
+    <t>Tabnine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Models </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -254,14 +340,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -274,8 +352,24 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +412,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -340,15 +446,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -369,13 +472,10 @@
     <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -384,23 +484,50 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,10 +544,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -720,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FC5125-E804-5749-A55F-8E8CD1C5214E}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -735,486 +858,1561 @@
     <col min="6" max="16384" width="19" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+    </row>
+    <row r="3" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>125</v>
+      </c>
+      <c r="D4" s="3">
+        <v>42</v>
+      </c>
+      <c r="E4" s="3">
+        <v>136</v>
+      </c>
+      <c r="F4" s="4">
+        <v>139</v>
+      </c>
+      <c r="G4" s="3">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3">
+        <v>106</v>
+      </c>
+      <c r="I4" s="3">
+        <v>128</v>
+      </c>
+      <c r="J4" s="3">
+        <v>68</v>
+      </c>
+      <c r="K4" s="3">
+        <v>103</v>
+      </c>
+      <c r="L4" s="3">
+        <v>113</v>
+      </c>
+      <c r="M4" s="3">
+        <v>40</v>
+      </c>
+      <c r="N4" s="3">
+        <v>80</v>
+      </c>
+      <c r="O4" s="3">
+        <v>81</v>
+      </c>
+      <c r="P4" s="3">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>86</v>
+      </c>
+      <c r="R4" s="3">
+        <v>79</v>
+      </c>
+      <c r="S4" s="3">
+        <v>59</v>
+      </c>
+      <c r="T4" s="3">
+        <v>212</v>
+      </c>
+      <c r="U4" s="3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>52</v>
+      </c>
+      <c r="D5" s="3">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3">
+        <v>37</v>
+      </c>
+      <c r="F5" s="4">
+        <v>51</v>
+      </c>
+      <c r="G5" s="3">
+        <v>21</v>
+      </c>
+      <c r="H5" s="3">
+        <v>35</v>
+      </c>
+      <c r="I5" s="3">
+        <v>49</v>
+      </c>
+      <c r="J5" s="3">
+        <v>28</v>
+      </c>
+      <c r="K5" s="3">
+        <v>39</v>
+      </c>
+      <c r="L5" s="3">
+        <v>49</v>
+      </c>
+      <c r="M5" s="3">
+        <v>23</v>
+      </c>
+      <c r="N5" s="3">
+        <v>31</v>
+      </c>
+      <c r="O5" s="3">
+        <v>46</v>
+      </c>
+      <c r="P5" s="3">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>28</v>
+      </c>
+      <c r="R5" s="3">
+        <v>38</v>
+      </c>
+      <c r="S5" s="3">
+        <v>23</v>
+      </c>
+      <c r="T5" s="3">
+        <v>67</v>
+      </c>
+      <c r="U5" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3">
+        <v>14</v>
+      </c>
+      <c r="K6" s="3">
+        <v>14</v>
+      </c>
+      <c r="L6" s="3">
+        <v>16</v>
+      </c>
+      <c r="M6" s="3">
+        <v>7</v>
+      </c>
+      <c r="N6" s="3">
+        <v>5</v>
+      </c>
+      <c r="O6" s="3">
+        <v>9</v>
+      </c>
+      <c r="P6" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>6</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>8</v>
+      </c>
+      <c r="T6" s="3">
+        <v>10</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>64</v>
+      </c>
+      <c r="F7" s="4">
+        <v>41</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>51</v>
+      </c>
+      <c r="I7" s="3">
+        <v>52</v>
+      </c>
+      <c r="J7" s="3">
+        <v>8</v>
+      </c>
+      <c r="K7" s="3">
+        <v>25</v>
+      </c>
+      <c r="L7" s="3">
+        <v>23</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>28</v>
+      </c>
+      <c r="O7" s="3">
+        <v>13</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>38</v>
+      </c>
+      <c r="R7" s="3">
         <v>30</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="14" t="s">
+      <c r="S7" s="3">
+        <v>14</v>
+      </c>
+      <c r="T7" s="3">
+        <v>100</v>
+      </c>
+      <c r="U7" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4">
+        <v>28</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3">
+        <v>22</v>
+      </c>
+      <c r="J8" s="3">
+        <v>18</v>
+      </c>
+      <c r="K8" s="3">
+        <v>25</v>
+      </c>
+      <c r="L8" s="3">
+        <v>25</v>
+      </c>
+      <c r="M8" s="3">
+        <v>10</v>
+      </c>
+      <c r="N8" s="3">
+        <v>16</v>
+      </c>
+      <c r="O8" s="3">
+        <v>13</v>
+      </c>
+      <c r="P8" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>14</v>
+      </c>
+      <c r="R8" s="3">
+        <v>11</v>
+      </c>
+      <c r="S8" s="3">
+        <v>14</v>
+      </c>
+      <c r="T8" s="3">
+        <v>35</v>
+      </c>
+      <c r="U8" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="O10" s="3">
+        <v>205</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="T10" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="U10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="U11" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-    </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4">
-        <v>125</v>
-      </c>
-      <c r="D3" s="4">
-        <v>42</v>
-      </c>
-      <c r="E3" s="4">
-        <v>136</v>
-      </c>
-      <c r="F3" s="5">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4">
-        <v>52</v>
-      </c>
-      <c r="D4" s="4">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4">
-        <v>37</v>
-      </c>
-      <c r="F4" s="5">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4">
-        <v>7</v>
-      </c>
-      <c r="F5" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4">
-        <v>44</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>64</v>
-      </c>
-      <c r="F6" s="5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4">
-        <v>13</v>
-      </c>
-      <c r="E7" s="4">
-        <v>28</v>
-      </c>
-      <c r="F7" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.24</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.53</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.19</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.43</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.24</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0.52</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <f>18+15+9+2+1</f>
         <v>45</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <v>9</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>12</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F12" s="2">
         <v>32</v>
       </c>
+      <c r="G12" s="2">
+        <f>6+3+3+1+1+1</f>
+        <v>15</v>
+      </c>
+      <c r="H12" s="2">
+        <f>4+3+2+2+1+1</f>
+        <v>13</v>
+      </c>
+      <c r="I12" s="2">
+        <f>10+5+3+1</f>
+        <v>19</v>
+      </c>
+      <c r="J12" s="2">
+        <f>2+1+1</f>
+        <v>4</v>
+      </c>
+      <c r="K12" s="2">
+        <f>5+4+3+1</f>
+        <v>13</v>
+      </c>
+      <c r="L12" s="2">
+        <f>12+8+4+3+2+1+1</f>
+        <v>31</v>
+      </c>
+      <c r="M12" s="2">
+        <f>3+2+1+1</f>
+        <v>7</v>
+      </c>
+      <c r="N12" s="2">
+        <f>4+3+1+1+1+1</f>
+        <v>11</v>
+      </c>
+      <c r="O12" s="2">
+        <f>8+6+3+1+1</f>
+        <v>19</v>
+      </c>
+      <c r="P12" s="2">
+        <f>2+2+1+1+1</f>
+        <v>7</v>
+      </c>
+      <c r="Q12" s="2">
+        <f>3+2+2+1+1+1</f>
+        <v>10</v>
+      </c>
+      <c r="R12" s="2">
+        <f>12+6+3+1+1</f>
+        <v>23</v>
+      </c>
+      <c r="S12" s="2">
+        <f>12+2+2+2+1</f>
+        <v>19</v>
+      </c>
+      <c r="T12" s="2">
+        <f>12+11+8+7+1</f>
+        <v>39</v>
+      </c>
+      <c r="U12" s="2">
+        <f>13+10+3+2+1</f>
+        <v>29</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" s="12" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+    <row r="13" spans="1:21" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="10">
+        <v>6.38</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2.63</v>
+      </c>
+      <c r="E13" s="10">
+        <v>7.78</v>
+      </c>
+      <c r="F13" s="10">
+        <v>5.12</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <v>7.35</v>
+      </c>
+      <c r="I13" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="J13" s="10">
+        <v>7.04</v>
+      </c>
+      <c r="K13" s="10">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="L13" s="10">
+        <v>3.33</v>
+      </c>
+      <c r="M13" s="10">
+        <v>5</v>
+      </c>
+      <c r="N13" s="10">
+        <v>6.67</v>
+      </c>
+      <c r="O13" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="P13" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>6.07</v>
+      </c>
+      <c r="R13" s="10">
+        <v>7.11</v>
+      </c>
+      <c r="S13" s="10">
+        <v>3.91</v>
+      </c>
+      <c r="T13" s="10">
+        <v>0</v>
+      </c>
+      <c r="U13" s="10">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="10">
+        <v>17</v>
+      </c>
+      <c r="D14" s="10">
+        <v>14</v>
+      </c>
+      <c r="E14" s="10">
+        <v>7</v>
+      </c>
+      <c r="F14" s="10">
+        <v>21</v>
+      </c>
+      <c r="G14" s="10">
+        <v>22</v>
+      </c>
+      <c r="H14" s="10">
+        <v>9</v>
+      </c>
+      <c r="I14" s="10">
+        <v>12</v>
+      </c>
+      <c r="J14" s="10">
+        <v>8</v>
+      </c>
+      <c r="K14" s="10">
+        <v>22</v>
+      </c>
+      <c r="L14" s="10">
+        <v>20</v>
+      </c>
+      <c r="M14" s="10">
+        <v>11</v>
+      </c>
+      <c r="N14" s="10">
+        <v>10</v>
+      </c>
+      <c r="O14" s="10">
+        <v>11</v>
+      </c>
+      <c r="P14" s="10">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>11</v>
+      </c>
+      <c r="R14" s="10">
+        <v>11</v>
+      </c>
+      <c r="S14" s="10">
+        <v>12</v>
+      </c>
+      <c r="T14" s="10">
+        <v>38</v>
+      </c>
+      <c r="U14" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C15" s="10">
+        <f>C14/C4</f>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D15" s="10">
+        <f>D14/D4</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E15" s="10">
+        <f>E14/E4</f>
+        <v>5.1470588235294115E-2</v>
+      </c>
+      <c r="F15" s="10">
+        <f>F14/F4</f>
+        <v>0.15107913669064749</v>
+      </c>
+      <c r="G15" s="10">
+        <f t="shared" ref="G15:R15" si="0">G14/G4</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="H15" s="10">
+        <f t="shared" si="0"/>
+        <v>8.4905660377358486E-2</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="0"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="J15" s="10">
+        <f t="shared" si="0"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="K15" s="10">
+        <f t="shared" si="0"/>
+        <v>0.21359223300970873</v>
+      </c>
+      <c r="L15" s="10">
+        <f t="shared" si="0"/>
+        <v>0.17699115044247787</v>
+      </c>
+      <c r="M15" s="10">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="N15" s="10">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" si="0"/>
+        <v>0.13580246913580246</v>
+      </c>
+      <c r="P15" s="10">
+        <f t="shared" si="0"/>
+        <v>0.32432432432432434</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" si="0"/>
+        <v>0.12790697674418605</v>
+      </c>
+      <c r="R15" s="10">
+        <f>R14/R4</f>
+        <v>0.13924050632911392</v>
+      </c>
+      <c r="S15" s="10">
+        <f t="shared" ref="S15:U15" si="1">S14/S4</f>
+        <v>0.20338983050847459</v>
+      </c>
+      <c r="T15" s="10">
+        <f t="shared" si="1"/>
+        <v>0.17924528301886791</v>
+      </c>
+      <c r="U15" s="10">
+        <f t="shared" si="1"/>
+        <v>0.15748031496062992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="7" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7">
+        <v>51</v>
+      </c>
+      <c r="D16" s="7">
+        <v>8</v>
+      </c>
+      <c r="E16" s="7">
+        <v>35</v>
+      </c>
+      <c r="F16" s="7">
+        <v>32</v>
+      </c>
+      <c r="G16" s="7">
+        <v>8</v>
+      </c>
+      <c r="H16" s="7">
+        <v>26</v>
+      </c>
+      <c r="I16" s="7">
+        <v>32</v>
+      </c>
+      <c r="J16" s="7">
+        <v>17</v>
+      </c>
+      <c r="K16" s="7">
+        <v>47</v>
+      </c>
+      <c r="L16" s="7">
+        <v>38</v>
+      </c>
+      <c r="M16" s="7">
+        <v>14</v>
+      </c>
+      <c r="N16" s="7">
+        <v>17</v>
+      </c>
+      <c r="O16" s="7">
         <v>23</v>
       </c>
-      <c r="C12" s="12">
-        <v>6.38</v>
-      </c>
-      <c r="D12" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="E12" s="12">
-        <v>7.78</v>
-      </c>
-      <c r="F12" s="12">
-        <v>5.12</v>
+      <c r="P16" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>23</v>
+      </c>
+      <c r="R16" s="7">
+        <v>29</v>
+      </c>
+      <c r="S16" s="7">
+        <v>22</v>
+      </c>
+      <c r="T16" s="7">
+        <v>61</v>
+      </c>
+      <c r="U16" s="7">
+        <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="12" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="12" t="s">
+    <row r="17" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="7">
+        <v>273.24</v>
+      </c>
+      <c r="D17" s="8">
+        <v>22.458839376460801</v>
+      </c>
+      <c r="E17" s="7">
+        <v>164.52</v>
+      </c>
+      <c r="F17" s="7">
+        <v>148.6</v>
+      </c>
+      <c r="G17" s="7">
+        <v>24</v>
+      </c>
+      <c r="H17" s="7">
+        <v>114.2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>150.41</v>
+      </c>
+      <c r="J17" s="7">
+        <v>64.73</v>
+      </c>
+      <c r="K17" s="7">
+        <v>241.08</v>
+      </c>
+      <c r="L17" s="7">
+        <v>182.68</v>
+      </c>
+      <c r="M17" s="7">
+        <v>48.43</v>
+      </c>
+      <c r="N17" s="7">
+        <v>64.73</v>
+      </c>
+      <c r="O17" s="7">
+        <v>97.7</v>
+      </c>
+      <c r="P17" s="7">
+        <v>48.43</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>95.9</v>
+      </c>
+      <c r="R17" s="7">
+        <v>131.18</v>
+      </c>
+      <c r="S17" s="7">
+        <v>85.92</v>
+      </c>
+      <c r="T17" s="7">
+        <v>322.41000000000003</v>
+      </c>
+      <c r="U17" s="7">
+        <v>169.22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="F18" s="7">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="I18" s="7">
+        <v>3.87</v>
+      </c>
+      <c r="J18" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K18" s="7">
+        <v>7.83</v>
+      </c>
+      <c r="L18" s="7">
+        <v>3.14</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1.69</v>
+      </c>
+      <c r="N18" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O18" s="7">
+        <v>2.68</v>
+      </c>
+      <c r="P18" s="7">
+        <v>1.69</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>2.88</v>
+      </c>
+      <c r="R18" s="7">
+        <v>3.35</v>
+      </c>
+      <c r="S18" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="T18" s="7">
+        <v>5.03</v>
+      </c>
+      <c r="U18" s="7">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1498.39</v>
+      </c>
+      <c r="D19" s="7">
+        <v>22.46</v>
+      </c>
+      <c r="E19" s="7">
+        <v>697.03</v>
+      </c>
+      <c r="F19" s="8">
+        <v>734.27561400673198</v>
+      </c>
+      <c r="G19" s="7">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
+        <v>388.28</v>
+      </c>
+      <c r="I19" s="7">
+        <v>581.87</v>
+      </c>
+      <c r="J19" s="7">
+        <v>142.4</v>
+      </c>
+      <c r="K19" s="7">
+        <v>1886.68</v>
+      </c>
+      <c r="L19" s="7">
+        <v>572.95000000000005</v>
+      </c>
+      <c r="M19" s="7">
+        <v>81.73</v>
+      </c>
+      <c r="N19" s="7">
+        <v>142.4</v>
+      </c>
+      <c r="O19" s="7">
+        <v>261.7</v>
+      </c>
+      <c r="P19" s="7">
+        <v>81.73</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>276.66000000000003</v>
+      </c>
+      <c r="R19" s="7">
+        <v>439.85</v>
+      </c>
+      <c r="S19" s="7">
+        <v>150.41999999999999</v>
+      </c>
+      <c r="T19" s="7">
+        <v>1622.45</v>
+      </c>
+      <c r="U19" s="7">
+        <v>609.22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="7">
+        <v>83.24</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="E20" s="7">
+        <v>38.72</v>
+      </c>
+      <c r="F20" s="7">
+        <v>40.79</v>
+      </c>
+      <c r="G20" s="7">
+        <v>2</v>
+      </c>
+      <c r="H20" s="7">
+        <v>21.57</v>
+      </c>
+      <c r="I20" s="7">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="J20" s="7">
+        <v>7.91</v>
+      </c>
+      <c r="K20" s="7">
+        <v>104.82</v>
+      </c>
+      <c r="L20" s="7">
+        <v>31.83</v>
+      </c>
+      <c r="M20" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="N20" s="7">
+        <v>7.91</v>
+      </c>
+      <c r="O20" s="7">
+        <v>14.54</v>
+      </c>
+      <c r="P20" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>15.37</v>
+      </c>
+      <c r="R20" s="7">
+        <v>24.44</v>
+      </c>
+      <c r="S20" s="7">
+        <v>8.36</v>
+      </c>
+      <c r="T20" s="7">
+        <v>90.14</v>
+      </c>
+      <c r="U20" s="7">
+        <v>33.840000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="D21" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E21" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F21" s="7">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G21" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H21" s="7">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="O21" s="7">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="P21" s="7">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="R21" s="7">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="S21" s="7">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="T21" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="U21" s="7">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F22" s="9">
+        <v>3.4</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="J22" s="3">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
+        <v>6.25</v>
+      </c>
+      <c r="M22" s="3">
+        <v>2</v>
+      </c>
+      <c r="N22" s="3">
+        <v>2</v>
+      </c>
+      <c r="O22" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="P22" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="R22" s="3">
+        <v>2</v>
+      </c>
+      <c r="S22" s="3">
+        <v>1</v>
+      </c>
+      <c r="T22" s="3">
+        <v>2.27</v>
+      </c>
+      <c r="U22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="D23" s="3">
+        <v>89.87</v>
+      </c>
+      <c r="E23" s="3">
+        <v>55.04</v>
+      </c>
+      <c r="F23" s="3">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="G23" s="3">
+        <v>88.89</v>
+      </c>
+      <c r="H23" s="3">
+        <v>65.19</v>
+      </c>
+      <c r="I23" s="3">
+        <v>67.569999999999993</v>
+      </c>
+      <c r="J23" s="3">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="K23" s="3">
+        <v>70.540000000000006</v>
+      </c>
+      <c r="L23" s="3">
+        <v>71.760000000000005</v>
+      </c>
+      <c r="M23" s="3">
+        <v>86.78</v>
+      </c>
+      <c r="N23" s="3">
+        <v>76.2</v>
+      </c>
+      <c r="O23" s="3">
+        <v>75.489999999999995</v>
+      </c>
+      <c r="P23" s="3">
+        <v>83.38</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>66.91</v>
+      </c>
+      <c r="R23" s="3">
+        <v>75.209999999999994</v>
+      </c>
+      <c r="S23" s="3">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="T23" s="3">
+        <v>51.27</v>
+      </c>
+      <c r="U23" s="3">
+        <v>64.31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="12">
-        <v>17</v>
-      </c>
-      <c r="D13" s="12">
-        <v>14</v>
-      </c>
-      <c r="E13" s="12">
-        <v>7</v>
-      </c>
-      <c r="F13" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="12" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="12">
-        <f>C13/C3</f>
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="D14" s="12">
-        <f>D13/D3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E14" s="12">
-        <f>E13/E3</f>
-        <v>5.1470588235294115E-2</v>
-      </c>
-      <c r="F14" s="12">
-        <f>F13/F3</f>
-        <v>0.15107913669064749</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="10">
-        <v>51</v>
-      </c>
-      <c r="D15" s="10">
-        <v>8</v>
-      </c>
-      <c r="E15" s="10">
-        <v>35</v>
-      </c>
-      <c r="F15" s="10">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="8">
-        <v>273.24</v>
-      </c>
-      <c r="D16" s="9">
-        <v>22.458839376460801</v>
-      </c>
-      <c r="E16" s="8">
-        <v>164.52</v>
-      </c>
-      <c r="F16" s="8">
-        <v>148.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="8">
-        <v>5.5</v>
-      </c>
-      <c r="D17" s="8">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>4.24</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4.9400000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1498.39</v>
-      </c>
-      <c r="D18" s="8">
-        <v>22.46</v>
-      </c>
-      <c r="E18" s="8">
-        <v>697.03</v>
-      </c>
-      <c r="F18" s="9">
-        <v>734.27561400673198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="8">
-        <v>83.24</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1.25</v>
-      </c>
-      <c r="E19" s="8">
-        <v>38.72</v>
-      </c>
-      <c r="F19" s="8">
-        <v>40.79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="D20" s="8">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E20" s="8">
-        <v>5.5E-2</v>
-      </c>
-      <c r="F20" s="8">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="11">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F21" s="11">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="4">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="D22" s="4">
-        <v>89.87</v>
-      </c>
-      <c r="E22" s="4">
-        <v>55.04</v>
-      </c>
-      <c r="F22" s="4">
-        <v>67.099999999999994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="13">
+      <c r="C24" s="11">
         <f>119.3+135.2+158.2</f>
         <v>412.7</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D24" s="11">
         <f>AVERAGE(97.5,130.9)</f>
         <v>114.2</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E24" s="11">
         <f>71.5+88.3+103.8</f>
         <v>263.60000000000002</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F24" s="11">
         <f>119.4+135.3+150.8</f>
         <v>405.5</v>
       </c>
+      <c r="G24" s="11">
+        <f>((96.8+106)+(121.3+813.7))/2</f>
+        <v>568.9</v>
+      </c>
+      <c r="H24" s="11">
+        <f>70.4+86.9+102.4</f>
+        <v>259.70000000000005</v>
+      </c>
+      <c r="I24" s="11">
+        <f>122.1+138.1+145.8</f>
+        <v>406</v>
+      </c>
+      <c r="J24" s="11">
+        <f>94.2</f>
+        <v>94.2</v>
+      </c>
+      <c r="K24" s="11">
+        <f>119.4+128.2+136</f>
+        <v>383.6</v>
+      </c>
+      <c r="L24" s="11">
+        <f>165.4 + 150.6 + 169.6</f>
+        <v>485.6</v>
+      </c>
+      <c r="M24" s="11">
+        <f>73.8+90.3+106.5</f>
+        <v>270.60000000000002</v>
+      </c>
+      <c r="N24" s="11">
+        <f>82.2+91.3+99.4</f>
+        <v>272.89999999999998</v>
+      </c>
+      <c r="O24" s="11">
+        <f>120.2+136.8+160.1</f>
+        <v>417.1</v>
+      </c>
+      <c r="P24" s="11">
+        <v>107</v>
+      </c>
+      <c r="Q24" s="11">
+        <f>105.4</f>
+        <v>105.4</v>
+      </c>
+      <c r="R24" s="11">
+        <f>112.2</f>
+        <v>112.2</v>
+      </c>
+      <c r="S24" s="11">
+        <v>788.6</v>
+      </c>
+      <c r="T24" s="11">
+        <v>147.5</v>
+      </c>
+      <c r="U24" s="11">
+        <v>222.8</v>
+      </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:L1"/>
+  <mergeCells count="8">
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="C1:U1"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dimension_reduction/PrincipalComponentAnalysis_results.xlsx
+++ b/dimension_reduction/PrincipalComponentAnalysis_results.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasmuskrebs/Documents/School/master_thesis/repo/dimension_reduction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9E045F-02FE-224F-9487-66A428669B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B4F683-B9EB-9D40-81AE-91C830538CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19980" xr2:uid="{C8214493-C4A5-054C-B17C-3B65FE6FA079}"/>
+    <workbookView xWindow="26820" yWindow="940" windowWidth="19200" windowHeight="19860" xr2:uid="{C8214493-C4A5-054C-B17C-3B65FE6FA079}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dimension Reduction" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,75 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{B243B211-C05D-D24E-98F9-8F82D442F9A7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rasmus Krebs:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Called on methods, can't be called on class. Also fit_transform have been omitted, as this just calls fit+transform
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S24" authorId="0" shapeId="0" xr:uid="{1E7FC892-145D-4244-937C-7E6C212761B1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rasmus Krebs:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Called on methods, can't be called on class. Also fit_transform have been omitted, as this just calls fit+transform
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V24" authorId="0" shapeId="0" xr:uid="{7025C84F-AB96-0A4E-BD7B-8085AE631777}">
+    <comment ref="A29" authorId="0" shapeId="0" xr:uid="{B243B211-C05D-D24E-98F9-8F82D442F9A7}">
       <text>
         <r>
           <rPr>
@@ -181,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
   <si>
     <t>GPT 3.5</t>
   </si>
@@ -304,6 +236,24 @@
   </si>
   <si>
     <t xml:space="preserve">Models </t>
+  </si>
+  <si>
+    <t>Fatal Errors (F)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errors (E) </t>
+  </si>
+  <si>
+    <t>Warnings (W)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactoring Checks (R) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Style Convenetion Errors (C) </t>
+  </si>
+  <si>
+    <t>CPU usage</t>
   </si>
 </sst>
 </file>
@@ -446,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -493,6 +443,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -502,32 +473,8 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,10 +790,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FC5125-E804-5749-A55F-8E8CD1C5214E}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -859,31 +807,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -891,36 +839,36 @@
       <c r="C2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18" t="s">
+      <c r="D2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="17" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="21" t="s">
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="26" t="s">
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="21" t="s">
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
     </row>
     <row r="3" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
@@ -930,58 +878,58 @@
         <v>3</v>
       </c>
       <c r="C3" s="14"/>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="T3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="U3" s="17" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1653,7 +1601,7 @@
     </row>
     <row r="14" spans="1:21" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>22</v>
@@ -1662,746 +1610,1023 @@
         <v>17</v>
       </c>
       <c r="D14" s="10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14" s="10">
+        <v>8</v>
+      </c>
+      <c r="F14" s="10">
+        <v>16</v>
+      </c>
+      <c r="G14" s="10">
+        <v>15</v>
+      </c>
+      <c r="H14" s="10">
         <v>7</v>
       </c>
-      <c r="F14" s="10">
-        <v>21</v>
-      </c>
-      <c r="G14" s="10">
-        <v>22</v>
-      </c>
-      <c r="H14" s="10">
+      <c r="I14" s="10">
+        <v>11</v>
+      </c>
+      <c r="J14" s="10">
+        <v>6</v>
+      </c>
+      <c r="K14" s="10">
+        <v>11</v>
+      </c>
+      <c r="L14" s="10">
+        <v>16</v>
+      </c>
+      <c r="M14" s="10">
+        <v>8</v>
+      </c>
+      <c r="N14" s="10">
         <v>9</v>
       </c>
-      <c r="I14" s="10">
-        <v>12</v>
-      </c>
-      <c r="J14" s="10">
+      <c r="O14" s="10">
         <v>8</v>
       </c>
-      <c r="K14" s="10">
-        <v>22</v>
-      </c>
-      <c r="L14" s="10">
-        <v>20</v>
-      </c>
-      <c r="M14" s="10">
-        <v>11</v>
-      </c>
-      <c r="N14" s="10">
+      <c r="P14" s="10">
         <v>10</v>
       </c>
-      <c r="O14" s="10">
-        <v>11</v>
-      </c>
-      <c r="P14" s="10">
-        <v>12</v>
-      </c>
       <c r="Q14" s="10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R14" s="10">
         <v>11</v>
       </c>
       <c r="S14" s="10">
+        <v>14</v>
+      </c>
+      <c r="T14" s="10">
+        <v>15</v>
+      </c>
+      <c r="U14" s="10">
         <v>12</v>
-      </c>
-      <c r="T14" s="10">
-        <v>38</v>
-      </c>
-      <c r="U14" s="10">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0</v>
+      </c>
+      <c r="M15" s="10">
+        <v>0</v>
+      </c>
+      <c r="N15" s="10">
+        <v>0</v>
+      </c>
+      <c r="O15" s="10">
+        <v>1</v>
+      </c>
+      <c r="P15" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>0</v>
+      </c>
+      <c r="R15" s="10">
+        <v>0</v>
+      </c>
+      <c r="S15" s="10">
+        <v>0</v>
+      </c>
+      <c r="T15" s="10">
+        <v>4</v>
+      </c>
+      <c r="U15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>4</v>
+      </c>
+      <c r="G16" s="10">
+        <v>2</v>
+      </c>
+      <c r="H16" s="10">
+        <v>2</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10">
+        <v>2</v>
+      </c>
+      <c r="K16" s="10">
+        <v>11</v>
+      </c>
+      <c r="L16" s="10">
+        <v>1</v>
+      </c>
+      <c r="M16" s="10">
+        <v>3</v>
+      </c>
+      <c r="N16" s="10">
+        <v>1</v>
+      </c>
+      <c r="O16" s="10">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>2</v>
+      </c>
+      <c r="R16" s="10">
+        <v>0</v>
+      </c>
+      <c r="S16" s="10">
+        <v>0</v>
+      </c>
+      <c r="T16" s="10">
+        <v>8</v>
+      </c>
+      <c r="U16" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0</v>
+      </c>
+      <c r="L17" s="10">
+        <v>3</v>
+      </c>
+      <c r="M17" s="10">
+        <v>0</v>
+      </c>
+      <c r="N17" s="10">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>0</v>
+      </c>
+      <c r="R17" s="10">
+        <v>0</v>
+      </c>
+      <c r="S17" s="10">
+        <v>0</v>
+      </c>
+      <c r="T17" s="10">
+        <v>13</v>
+      </c>
+      <c r="U17" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10">
+        <v>0</v>
+      </c>
+      <c r="K18" s="10">
+        <v>0</v>
+      </c>
+      <c r="L18" s="10">
+        <v>0</v>
+      </c>
+      <c r="M18" s="10">
+        <v>0</v>
+      </c>
+      <c r="N18" s="10">
+        <v>0</v>
+      </c>
+      <c r="O18" s="10">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>0</v>
+      </c>
+      <c r="R18" s="10">
+        <v>0</v>
+      </c>
+      <c r="S18" s="10">
+        <v>0</v>
+      </c>
+      <c r="T18" s="10">
+        <v>0</v>
+      </c>
+      <c r="U18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="10">
+        <f>SUM(C14:C18)</f>
+        <v>17</v>
+      </c>
+      <c r="D19" s="10">
+        <f>SUM(D14:D18)</f>
+        <v>14</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" ref="E19:L19" si="0">SUM(E14:E18)</f>
+        <v>8</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J19" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K19" s="10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="L19" s="10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" ref="M19" si="1">SUM(M14:M18)</f>
+        <v>11</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" ref="N19" si="2">SUM(N14:N18)</f>
+        <v>10</v>
+      </c>
+      <c r="O19" s="10">
+        <f t="shared" ref="O19" si="3">SUM(O14:O18)</f>
+        <v>9</v>
+      </c>
+      <c r="P19" s="10">
+        <f t="shared" ref="P19" si="4">SUM(P14:P18)</f>
+        <v>12</v>
+      </c>
+      <c r="Q19" s="10">
+        <f t="shared" ref="Q19" si="5">SUM(Q14:Q18)</f>
+        <v>11</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" ref="R19" si="6">SUM(R14:R18)</f>
+        <v>11</v>
+      </c>
+      <c r="S19" s="10">
+        <f t="shared" ref="S19" si="7">SUM(S14:S18)</f>
+        <v>14</v>
+      </c>
+      <c r="T19" s="10">
+        <f t="shared" ref="T19:U19" si="8">SUM(T14:T18)</f>
+        <v>40</v>
+      </c>
+      <c r="U19" s="10">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="10">
-        <f>C14/C4</f>
+      <c r="C20" s="10">
+        <f>C19/C4</f>
         <v>0.13600000000000001</v>
       </c>
-      <c r="D15" s="10">
-        <f>D14/D4</f>
+      <c r="D20" s="10">
+        <f>D19/D4</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E15" s="10">
-        <f>E14/E4</f>
-        <v>5.1470588235294115E-2</v>
-      </c>
-      <c r="F15" s="10">
-        <f>F14/F4</f>
+      <c r="E20" s="10">
+        <f t="shared" ref="E20:I20" si="9">E19/E4</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="9"/>
         <v>0.15107913669064749</v>
       </c>
-      <c r="G15" s="10">
-        <f t="shared" ref="G15:R15" si="0">G14/G4</f>
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="H15" s="10">
-        <f t="shared" si="0"/>
+      <c r="G20" s="10">
+        <f t="shared" si="9"/>
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="H20" s="10">
+        <f t="shared" si="9"/>
         <v>8.4905660377358486E-2</v>
       </c>
-      <c r="I15" s="10">
-        <f t="shared" si="0"/>
+      <c r="I20" s="10">
+        <f t="shared" si="9"/>
         <v>9.375E-2</v>
       </c>
-      <c r="J15" s="10">
-        <f t="shared" si="0"/>
+      <c r="J20" s="10">
+        <f t="shared" ref="J20:Q20" si="10">J19/J4</f>
         <v>0.11764705882352941</v>
       </c>
-      <c r="K15" s="10">
-        <f t="shared" si="0"/>
+      <c r="K20" s="10">
+        <f t="shared" si="10"/>
         <v>0.21359223300970873</v>
       </c>
-      <c r="L15" s="10">
-        <f t="shared" si="0"/>
+      <c r="L20" s="10">
+        <f t="shared" si="10"/>
         <v>0.17699115044247787</v>
       </c>
-      <c r="M15" s="10">
-        <f t="shared" si="0"/>
+      <c r="M20" s="10">
+        <f t="shared" si="10"/>
         <v>0.27500000000000002</v>
       </c>
-      <c r="N15" s="10">
-        <f t="shared" si="0"/>
+      <c r="N20" s="10">
+        <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
-      <c r="O15" s="10">
-        <f t="shared" si="0"/>
-        <v>0.13580246913580246</v>
-      </c>
-      <c r="P15" s="10">
-        <f t="shared" si="0"/>
+      <c r="O20" s="10">
+        <f t="shared" si="10"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="P20" s="10">
+        <f t="shared" si="10"/>
         <v>0.32432432432432434</v>
       </c>
-      <c r="Q15" s="10">
-        <f t="shared" si="0"/>
+      <c r="Q20" s="10">
+        <f t="shared" si="10"/>
         <v>0.12790697674418605</v>
       </c>
-      <c r="R15" s="10">
-        <f>R14/R4</f>
+      <c r="R20" s="10">
+        <f>R19/R4</f>
         <v>0.13924050632911392</v>
       </c>
-      <c r="S15" s="10">
-        <f t="shared" ref="S15:U15" si="1">S14/S4</f>
-        <v>0.20338983050847459</v>
-      </c>
-      <c r="T15" s="10">
-        <f t="shared" si="1"/>
-        <v>0.17924528301886791</v>
-      </c>
-      <c r="U15" s="10">
-        <f t="shared" si="1"/>
-        <v>0.15748031496062992</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" s="7" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="S20" s="10">
+        <f t="shared" ref="S20:U20" si="11">S19/S4</f>
+        <v>0.23728813559322035</v>
+      </c>
+      <c r="T20" s="10">
+        <f t="shared" si="11"/>
+        <v>0.18867924528301888</v>
+      </c>
+      <c r="U20" s="10">
+        <f t="shared" si="11"/>
+        <v>0.17322834645669291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="7" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="7">
-        <v>51</v>
-      </c>
-      <c r="D16" s="7">
-        <v>8</v>
-      </c>
-      <c r="E16" s="7">
-        <v>35</v>
-      </c>
-      <c r="F16" s="7">
-        <v>32</v>
-      </c>
-      <c r="G16" s="7">
-        <v>8</v>
-      </c>
-      <c r="H16" s="7">
-        <v>26</v>
-      </c>
-      <c r="I16" s="7">
-        <v>32</v>
-      </c>
-      <c r="J16" s="7">
-        <v>17</v>
-      </c>
-      <c r="K16" s="7">
-        <v>47</v>
-      </c>
-      <c r="L16" s="7">
-        <v>38</v>
-      </c>
-      <c r="M16" s="7">
-        <v>14</v>
-      </c>
-      <c r="N16" s="7">
-        <v>17</v>
-      </c>
-      <c r="O16" s="7">
-        <v>23</v>
-      </c>
-      <c r="P16" s="7">
-        <v>14</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>23</v>
-      </c>
-      <c r="R16" s="7">
-        <v>29</v>
-      </c>
-      <c r="S16" s="7">
-        <v>22</v>
-      </c>
-      <c r="T16" s="7">
-        <v>61</v>
-      </c>
-      <c r="U16" s="7">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="7">
-        <v>273.24</v>
-      </c>
-      <c r="D17" s="8">
-        <v>22.458839376460801</v>
-      </c>
-      <c r="E17" s="7">
-        <v>164.52</v>
-      </c>
-      <c r="F17" s="7">
-        <v>148.6</v>
-      </c>
-      <c r="G17" s="7">
-        <v>24</v>
-      </c>
-      <c r="H17" s="7">
-        <v>114.2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>150.41</v>
-      </c>
-      <c r="J17" s="7">
-        <v>64.73</v>
-      </c>
-      <c r="K17" s="7">
-        <v>241.08</v>
-      </c>
-      <c r="L17" s="7">
-        <v>182.68</v>
-      </c>
-      <c r="M17" s="7">
-        <v>48.43</v>
-      </c>
-      <c r="N17" s="7">
-        <v>64.73</v>
-      </c>
-      <c r="O17" s="7">
-        <v>97.7</v>
-      </c>
-      <c r="P17" s="7">
-        <v>48.43</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>95.9</v>
-      </c>
-      <c r="R17" s="7">
-        <v>131.18</v>
-      </c>
-      <c r="S17" s="7">
-        <v>85.92</v>
-      </c>
-      <c r="T17" s="7">
-        <v>322.41000000000003</v>
-      </c>
-      <c r="U17" s="7">
-        <v>169.22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="F18" s="7">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="G18" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="H18" s="7">
-        <v>3.4</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3.87</v>
-      </c>
-      <c r="J18" s="7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K18" s="7">
-        <v>7.83</v>
-      </c>
-      <c r="L18" s="7">
-        <v>3.14</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1.69</v>
-      </c>
-      <c r="N18" s="7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="O18" s="7">
-        <v>2.68</v>
-      </c>
-      <c r="P18" s="7">
-        <v>1.69</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>2.88</v>
-      </c>
-      <c r="R18" s="7">
-        <v>3.35</v>
-      </c>
-      <c r="S18" s="7">
-        <v>1.75</v>
-      </c>
-      <c r="T18" s="7">
-        <v>5.03</v>
-      </c>
-      <c r="U18" s="7">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1498.39</v>
-      </c>
-      <c r="D19" s="7">
-        <v>22.46</v>
-      </c>
-      <c r="E19" s="7">
-        <v>697.03</v>
-      </c>
-      <c r="F19" s="8">
-        <v>734.27561400673198</v>
-      </c>
-      <c r="G19" s="7">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
-        <v>388.28</v>
-      </c>
-      <c r="I19" s="7">
-        <v>581.87</v>
-      </c>
-      <c r="J19" s="7">
-        <v>142.4</v>
-      </c>
-      <c r="K19" s="7">
-        <v>1886.68</v>
-      </c>
-      <c r="L19" s="7">
-        <v>572.95000000000005</v>
-      </c>
-      <c r="M19" s="7">
-        <v>81.73</v>
-      </c>
-      <c r="N19" s="7">
-        <v>142.4</v>
-      </c>
-      <c r="O19" s="7">
-        <v>261.7</v>
-      </c>
-      <c r="P19" s="7">
-        <v>81.73</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>276.66000000000003</v>
-      </c>
-      <c r="R19" s="7">
-        <v>439.85</v>
-      </c>
-      <c r="S19" s="7">
-        <v>150.41999999999999</v>
-      </c>
-      <c r="T19" s="7">
-        <v>1622.45</v>
-      </c>
-      <c r="U19" s="7">
-        <v>609.22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="7">
-        <v>83.24</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1.25</v>
-      </c>
-      <c r="E20" s="7">
-        <v>38.72</v>
-      </c>
-      <c r="F20" s="7">
-        <v>40.79</v>
-      </c>
-      <c r="G20" s="7">
-        <v>2</v>
-      </c>
-      <c r="H20" s="7">
-        <v>21.57</v>
-      </c>
-      <c r="I20" s="7">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="J20" s="7">
-        <v>7.91</v>
-      </c>
-      <c r="K20" s="7">
-        <v>104.82</v>
-      </c>
-      <c r="L20" s="7">
-        <v>31.83</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4.54</v>
-      </c>
-      <c r="N20" s="7">
-        <v>7.91</v>
-      </c>
-      <c r="O20" s="7">
-        <v>14.54</v>
-      </c>
-      <c r="P20" s="7">
-        <v>4.54</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>15.37</v>
-      </c>
-      <c r="R20" s="7">
-        <v>24.44</v>
-      </c>
-      <c r="S20" s="7">
-        <v>8.36</v>
-      </c>
-      <c r="T20" s="7">
-        <v>90.14</v>
-      </c>
-      <c r="U20" s="7">
-        <v>33.840000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="7">
+        <v>51</v>
+      </c>
+      <c r="D21" s="7">
+        <v>8</v>
+      </c>
+      <c r="E21" s="7">
+        <v>35</v>
+      </c>
+      <c r="F21" s="7">
+        <v>32</v>
+      </c>
+      <c r="G21" s="7">
+        <v>8</v>
+      </c>
+      <c r="H21" s="7">
+        <v>26</v>
+      </c>
+      <c r="I21" s="7">
+        <v>32</v>
+      </c>
+      <c r="J21" s="7">
+        <v>17</v>
+      </c>
+      <c r="K21" s="7">
+        <v>47</v>
+      </c>
+      <c r="L21" s="7">
+        <v>38</v>
+      </c>
+      <c r="M21" s="7">
+        <v>14</v>
+      </c>
+      <c r="N21" s="7">
+        <v>17</v>
+      </c>
+      <c r="O21" s="7">
+        <v>23</v>
+      </c>
+      <c r="P21" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>23</v>
+      </c>
+      <c r="R21" s="7">
+        <v>29</v>
+      </c>
+      <c r="S21" s="7">
+        <v>22</v>
+      </c>
+      <c r="T21" s="7">
+        <v>61</v>
+      </c>
+      <c r="U21" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="7">
+        <v>273.24</v>
+      </c>
+      <c r="D22" s="8">
+        <v>22.458839376460801</v>
+      </c>
+      <c r="E22" s="7">
+        <v>164.52</v>
+      </c>
+      <c r="F22" s="7">
+        <v>148.6</v>
+      </c>
+      <c r="G22" s="7">
+        <v>24</v>
+      </c>
+      <c r="H22" s="7">
+        <v>114.2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>150.41</v>
+      </c>
+      <c r="J22" s="7">
+        <v>64.73</v>
+      </c>
+      <c r="K22" s="7">
+        <v>241.08</v>
+      </c>
+      <c r="L22" s="7">
+        <v>182.68</v>
+      </c>
+      <c r="M22" s="7">
+        <v>48.43</v>
+      </c>
+      <c r="N22" s="7">
+        <v>64.73</v>
+      </c>
+      <c r="O22" s="7">
+        <v>97.7</v>
+      </c>
+      <c r="P22" s="7">
+        <v>48.43</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>95.9</v>
+      </c>
+      <c r="R22" s="7">
+        <v>131.18</v>
+      </c>
+      <c r="S22" s="7">
+        <v>85.92</v>
+      </c>
+      <c r="T22" s="7">
+        <v>322.41000000000003</v>
+      </c>
+      <c r="U22" s="7">
+        <v>169.22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="F23" s="7">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="H23" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="I23" s="7">
+        <v>3.87</v>
+      </c>
+      <c r="J23" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K23" s="7">
+        <v>7.83</v>
+      </c>
+      <c r="L23" s="7">
+        <v>3.14</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1.69</v>
+      </c>
+      <c r="N23" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O23" s="7">
+        <v>2.68</v>
+      </c>
+      <c r="P23" s="7">
+        <v>1.69</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>2.88</v>
+      </c>
+      <c r="R23" s="7">
+        <v>3.35</v>
+      </c>
+      <c r="S23" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="T23" s="7">
+        <v>5.03</v>
+      </c>
+      <c r="U23" s="7">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1498.39</v>
+      </c>
+      <c r="D24" s="7">
+        <v>22.46</v>
+      </c>
+      <c r="E24" s="7">
+        <v>697.03</v>
+      </c>
+      <c r="F24" s="8">
+        <v>734.27561400673198</v>
+      </c>
+      <c r="G24" s="7">
+        <v>36</v>
+      </c>
+      <c r="H24" s="7">
+        <v>388.28</v>
+      </c>
+      <c r="I24" s="7">
+        <v>581.87</v>
+      </c>
+      <c r="J24" s="7">
+        <v>142.4</v>
+      </c>
+      <c r="K24" s="7">
+        <v>1886.68</v>
+      </c>
+      <c r="L24" s="7">
+        <v>572.95000000000005</v>
+      </c>
+      <c r="M24" s="7">
+        <v>81.73</v>
+      </c>
+      <c r="N24" s="7">
+        <v>142.4</v>
+      </c>
+      <c r="O24" s="7">
+        <v>261.7</v>
+      </c>
+      <c r="P24" s="7">
+        <v>81.73</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>276.66000000000003</v>
+      </c>
+      <c r="R24" s="7">
+        <v>439.85</v>
+      </c>
+      <c r="S24" s="7">
+        <v>150.41999999999999</v>
+      </c>
+      <c r="T24" s="7">
+        <v>1622.45</v>
+      </c>
+      <c r="U24" s="7">
+        <v>609.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="7">
+        <v>83.24</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="E25" s="7">
+        <v>38.72</v>
+      </c>
+      <c r="F25" s="7">
+        <v>40.79</v>
+      </c>
+      <c r="G25" s="7">
+        <v>2</v>
+      </c>
+      <c r="H25" s="7">
+        <v>21.57</v>
+      </c>
+      <c r="I25" s="7">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="J25" s="7">
+        <v>7.91</v>
+      </c>
+      <c r="K25" s="7">
+        <v>104.82</v>
+      </c>
+      <c r="L25" s="7">
+        <v>31.83</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="N25" s="7">
+        <v>7.91</v>
+      </c>
+      <c r="O25" s="7">
+        <v>14.54</v>
+      </c>
+      <c r="P25" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>15.37</v>
+      </c>
+      <c r="R25" s="7">
+        <v>24.44</v>
+      </c>
+      <c r="S25" s="7">
+        <v>8.36</v>
+      </c>
+      <c r="T25" s="7">
+        <v>90.14</v>
+      </c>
+      <c r="U25" s="7">
+        <v>33.840000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="7">
         <v>0.09</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D26" s="7">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E26" s="7">
         <v>5.5E-2</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F26" s="7">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G26" s="7">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H26" s="7">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I26" s="7">
         <v>0.05</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J26" s="7">
         <v>0.02</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K26" s="7">
         <v>0.08</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L26" s="7">
         <v>0.06</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M26" s="7">
         <v>0.02</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N26" s="7">
         <v>0.02</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O26" s="7">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P26" s="7">
         <v>1.6E-2</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q26" s="7">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="R21" s="7">
+      <c r="R26" s="7">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="S21" s="7">
+      <c r="S26" s="7">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="T21" s="7">
+      <c r="T26" s="7">
         <v>0.1</v>
       </c>
-      <c r="U21" s="7">
+      <c r="U26" s="7">
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+    <row r="27" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C27" s="3">
         <v>3.4</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D27" s="3">
         <v>1</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E27" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F27" s="9">
         <v>3.4</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G27" s="3">
         <v>1</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H27" s="3">
         <v>2</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I27" s="3">
         <v>3.2</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J27" s="3">
         <v>5</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K27" s="3">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L27" s="3">
         <v>6.25</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M27" s="3">
         <v>2</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N27" s="3">
         <v>2</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O27" s="3">
         <v>3.2</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P27" s="3">
         <v>2</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q27" s="3">
         <v>1.6</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R27" s="3">
         <v>2</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S27" s="3">
         <v>1</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T27" s="3">
         <v>2.27</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U27" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    <row r="28" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C28" s="3">
         <v>66.400000000000006</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D28" s="3">
         <v>89.87</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E28" s="3">
         <v>55.04</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F28" s="3">
         <v>67.099999999999994</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G28" s="3">
         <v>88.89</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H28" s="3">
         <v>65.19</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I28" s="3">
         <v>67.569999999999993</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J28" s="3">
         <v>81.599999999999994</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K28" s="3">
         <v>70.540000000000006</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L28" s="3">
         <v>71.760000000000005</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M28" s="3">
         <v>86.78</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N28" s="3">
         <v>76.2</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O28" s="3">
         <v>75.489999999999995</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P28" s="3">
         <v>83.38</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q28" s="3">
         <v>66.91</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R28" s="3">
         <v>75.209999999999994</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S28" s="3">
         <v>80.400000000000006</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T28" s="3">
         <v>51.27</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U28" s="3">
         <v>64.31</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+    <row r="29" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="11">
-        <f>119.3+135.2+158.2</f>
-        <v>412.7</v>
-      </c>
-      <c r="D24" s="11">
-        <f>AVERAGE(97.5,130.9)</f>
-        <v>114.2</v>
-      </c>
-      <c r="E24" s="11">
-        <f>71.5+88.3+103.8</f>
-        <v>263.60000000000002</v>
-      </c>
-      <c r="F24" s="11">
-        <f>119.4+135.3+150.8</f>
-        <v>405.5</v>
-      </c>
-      <c r="G24" s="11">
-        <f>((96.8+106)+(121.3+813.7))/2</f>
-        <v>568.9</v>
-      </c>
-      <c r="H24" s="11">
-        <f>70.4+86.9+102.4</f>
-        <v>259.70000000000005</v>
-      </c>
-      <c r="I24" s="11">
-        <f>122.1+138.1+145.8</f>
-        <v>406</v>
-      </c>
-      <c r="J24" s="11">
-        <f>94.2</f>
-        <v>94.2</v>
-      </c>
-      <c r="K24" s="11">
-        <f>119.4+128.2+136</f>
-        <v>383.6</v>
-      </c>
-      <c r="L24" s="11">
-        <f>165.4 + 150.6 + 169.6</f>
-        <v>485.6</v>
-      </c>
-      <c r="M24" s="11">
-        <f>73.8+90.3+106.5</f>
-        <v>270.60000000000002</v>
-      </c>
-      <c r="N24" s="11">
-        <f>82.2+91.3+99.4</f>
-        <v>272.89999999999998</v>
-      </c>
-      <c r="O24" s="11">
-        <f>120.2+136.8+160.1</f>
-        <v>417.1</v>
-      </c>
-      <c r="P24" s="11">
-        <v>107</v>
-      </c>
-      <c r="Q24" s="11">
-        <f>105.4</f>
-        <v>105.4</v>
-      </c>
-      <c r="R24" s="11">
-        <f>112.2</f>
-        <v>112.2</v>
-      </c>
-      <c r="S24" s="11">
-        <v>788.6</v>
-      </c>
-      <c r="T24" s="11">
-        <v>147.5</v>
-      </c>
-      <c r="U24" s="11">
-        <v>222.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C25" s="1"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="26" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/dimension_reduction/PrincipalComponentAnalysis_results.xlsx
+++ b/dimension_reduction/PrincipalComponentAnalysis_results.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasmuskrebs/Documents/School/master_thesis/repo/dimension_reduction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B4F683-B9EB-9D40-81AE-91C830538CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642FED7B-6633-9544-BE3F-1DE29B4E14F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26820" yWindow="940" windowWidth="19200" windowHeight="19860" xr2:uid="{C8214493-C4A5-054C-B17C-3B65FE6FA079}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" activeTab="2" xr2:uid="{C8214493-C4A5-054C-B17C-3B65FE6FA079}"/>
   </bookViews>
   <sheets>
     <sheet name="Dimension Reduction" sheetId="1" r:id="rId1"/>
+    <sheet name="Metric Description" sheetId="3" r:id="rId2"/>
+    <sheet name="Categorized Metrics" sheetId="2" r:id="rId3"/>
+    <sheet name="Final Metric Selection" sheetId="4" r:id="rId4"/>
+    <sheet name="Additional Information" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -108,12 +112,182 @@
         </r>
       </text>
     </comment>
+    <comment ref="A30" authorId="0" shapeId="0" xr:uid="{A9E15694-1619-7D41-96FD-73C569B68DA4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rasmus Krebs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Called on methods, can't be called on class. Also fit_transform have been omitted, as this just calls fit+transform
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F5A8D08A-14FE-0543-9268-D11663A4170C}</author>
+    <author>tc={EBC5B91B-8901-A847-B4C1-E25D313B811F}</author>
+    <author>tc={8B9725AF-4CC9-CB44-9B7C-CD92EDB4602C}</author>
+  </authors>
+  <commentList>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{F5A8D08A-14FE-0543-9268-D11663A4170C}">
+      <text>
+        <t>[Trådet kommentar]
+Din version af Excel lader dig læse denne trådede kommentar. Eventuelle ændringer vil dog blive fjernet, hvis filen åbnes i en nyere version af Excel. Få mere at vide: https://go.microsoft.com/fwlink/?linkid=870924
+Kommentar:
+     While primarily related to maintainability, consistent coding style can prevent security issues by avoiding constructs that are prone to errors.</t>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="1" shapeId="0" xr:uid="{EBC5B91B-8901-A847-B4C1-E25D313B811F}">
+      <text>
+        <t>[Trådet kommentar]
+Din version af Excel lader dig læse denne trådede kommentar. Eventuelle ændringer vil dog blive fjernet, hvis filen åbnes i en nyere version af Excel. Få mere at vide: https://go.microsoft.com/fwlink/?linkid=870924
+Kommentar:
+    Pylint Rating</t>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="2" shapeId="0" xr:uid="{8B9725AF-4CC9-CB44-9B7C-CD92EDB4602C}">
+      <text>
+        <t>[Trådet kommentar]
+Din version af Excel lader dig læse denne trådede kommentar. Eventuelle ændringer vil dog blive fjernet, hvis filen åbnes i en nyere version af Excel. Få mere at vide: https://go.microsoft.com/fwlink/?linkid=870924
+Kommentar:
+    Some flake8 rules pertain to code quality that can indirectly affect security by preventing common mistakes.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rasmus Krebs</author>
+  </authors>
+  <commentList>
+    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{62079CB4-5E7E-5642-89CB-5DA61F98E79A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rasmus Krebs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Called on methods, can't be called on class. Also fit_transform have been omitted, as this just calls fit+transform
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A28" authorId="0" shapeId="0" xr:uid="{4EC9D38F-4FEB-FB4C-9D7A-A8ACB6D132AC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rasmus Krebs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Called on methods, can't be called on class. Also fit_transform have been omitted, as this just calls fit+transform
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="168">
   <si>
     <t>GPT 3.5</t>
   </si>
@@ -253,14 +427,702 @@
     <t xml:space="preserve">Style Convenetion Errors (C) </t>
   </si>
   <si>
-    <t>CPU usage</t>
+    <t>CPU Usage Per Cent</t>
+  </si>
+  <si>
+    <t>Codeium</t>
+  </si>
+  <si>
+    <t>CodeLLama</t>
+  </si>
+  <si>
+    <t>WizardCoder</t>
+  </si>
+  <si>
+    <t>Performance Efficiency</t>
+  </si>
+  <si>
+    <t>Reliability</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Maintainability</t>
+  </si>
+  <si>
+    <t>ISO 5055</t>
+  </si>
+  <si>
+    <t>Flake8 Messages</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of source lines of code </t>
+  </si>
+  <si>
+    <t>Number of single line comments (i.e. #)</t>
+  </si>
+  <si>
+    <t>The number of multi-line strings (comments)</t>
+  </si>
+  <si>
+    <t>Number of blank lines (or whitesace-only)</t>
+  </si>
+  <si>
+    <t>Single line comments to lines of code ratio</t>
+  </si>
+  <si>
+    <t>Single line comments to lines of source code ratio</t>
+  </si>
+  <si>
+    <t>All types of comments to lines of code ratio</t>
+  </si>
+  <si>
+    <t>Total number of linting and error messages highlighted by flake8</t>
+  </si>
+  <si>
+    <t>A coding convention score calculated by Pylint, computed as follows: 10.0 - ((float(5 * Frequency of convention errors) / Number of statement) * 10</t>
+  </si>
+  <si>
+    <t>Total messages, just sums over C, R, W, E and F</t>
+  </si>
+  <si>
+    <t>Total messages divided by lines of code</t>
+  </si>
+  <si>
+    <t>Cyclomatic Complexity corresponds to the number of decisions a block of code contains plus 1. This number (also called McCabe number) is equal to the number of linearly independent paths through the code. This number can be used as a guide when testing conditional logic in blocks.</t>
+  </si>
+  <si>
+    <t>Halstead Time to Prgram</t>
+  </si>
+  <si>
+    <t>This is the estimated time required to implement the program, based on the program effort (E) and a constant value that depends on the programming language and development environment.</t>
+  </si>
+  <si>
+    <t>Halstead's delivered bugs (B) is an estimate for the number of errors in the implementation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self </t>
+  </si>
+  <si>
+    <t>Memory Profile</t>
+  </si>
+  <si>
+    <t>Line-by-line analysis of memory consumption for python programs. Max memory consumption by program is used as final value</t>
+  </si>
+  <si>
+    <t>% of CPU usage being taken by program</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>Continuous percentage</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Best Score*</t>
+  </si>
+  <si>
+    <t>Low**</t>
+  </si>
+  <si>
+    <t>Measures how maintainable (easy to support and change) the source code is. The maintainability index is calculated as a factored formula consisting of SLOC (Source Lines Of Code), Cyclomatic Complexity and Halstead volume</t>
+  </si>
+  <si>
+    <t>1 - 40+</t>
+  </si>
+  <si>
+    <t>0 - 10</t>
+  </si>
+  <si>
+    <t>0 - 1</t>
+  </si>
+  <si>
+    <t>85+</t>
+  </si>
+  <si>
+    <t>0 - 100</t>
+  </si>
+  <si>
+    <t>0-100</t>
+  </si>
+  <si>
+    <t>METRIC OVERVIEW</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cyclomatic Complexity
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M = E - N + 2P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+M: Cyclomatic Complexity</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">E: Number of edges in flow graph
+N: Number of nodes in flow graph
+P: Number of connected compenets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Maintainability Index
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MI = (171−5.2 × ln(Halstead Volume) − 0.23 × Cyclomatic Complexity − 16.2 × ln(Lines of Code)) × (100/171)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This is the adjusted version. Dobbelt check that this is correct</t>
+    </r>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Number of style convention errors. Style convention errors are issues related to coding style, that is not following the recommended PEP 8. Examples include line length, variable names, spacing, and indentation.</t>
+  </si>
+  <si>
+    <t>Number of refactoring errors. Refactoring errors are parts of the code that could be refactored to make the code more maintainable, readable or efficient. Examples include removing unnecessary code, using a more Pythonic approach, or improve code structure</t>
+  </si>
+  <si>
+    <t>Number of warning errors. Warnings are code snippets that are runable, but may lead to bugs or unexpected behavior. Examples include redefining built-in functions, using deprecated modules or accessing protected class members</t>
+  </si>
+  <si>
+    <t>Number of actual errors. These are errors that will likely prevent the code from running correctly. Usually these represent coding mistakes that will lead to exceåts or other errors when the code is executed. This includes syntax errors, undeclared variables, or unimplemented abstract methods</t>
+  </si>
+  <si>
+    <t>Number of fatal errors. Serious issues that prevent pylint from continuing to check the file. Could occur if Pylint encounters a problem with parsing the file, such as a borken file caused by syntax errors. These generally need to be fixed before pylint can actually test the code</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>TM / L</t>
+  </si>
+  <si>
+    <t>Same as above</t>
+  </si>
+  <si>
+    <t>Similarly here, however, we might find here that no doc-strings are included</t>
+  </si>
+  <si>
+    <t>Also counts number of broken best practices, and similarly also uses pylint, so therefore it can be removed</t>
+  </si>
+  <si>
+    <t>This is the product of program length (N) and the logarithm of vocabulary size. It can be seen as a measure of the size of the implementation of the algorithm. A larger volume may imply that more efforts is required to understand the code, and if too high, may indicate the code is too complex</t>
+  </si>
+  <si>
+    <t>This is the total number of operator and operand occurrences in the program. Provides a measure of the size of a program's source code based on operations within it. Can be thought of as a reflection of the implementation size and alogrithmic complexity of the code. Larger values may indicate more complex code which might be more difficult to understand and maintian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the ratio of the number of unique operators to the total number of operators in the program. An attempt to quantify how difficult a piece of code is to understand and maintain. Relies on the diversity and frequency of operators and operands. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generally just a fundamental measure that is used as the basis for other metrics. Reason for keeping it would merely be for providing a quick overview of the size of the code in terms of its basic components </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Tekst)"/>
+      </rPr>
+      <t>Comments for Metrics</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Tekst)"/>
+      </rPr>
+      <t xml:space="preserve">
+footnotes</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*Best scores denoted with "-" are because they are relative
+**Halstead scores are indicative. Generally, the lower the values, the more simple the program is. This does not imply that the code is better, as too low complexity might indicate lack of functionality. Thus it's all relative
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Tekst)"/>
+      </rPr>
+      <t>Comments</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Halstead</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+In general, lower values in Halstead's difficulty and volume metrics suggest that the code is simpler, easier to understand, and potentially has lower bug density. Simpler code is usually preferable as it's easier to maintain and less prone to errors.
+A high volume with relatively low difficulty might indicate that the code is doing a lot of work but remains understandable and manageable. This could be seen as beneficial in some contexts.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Operators and Operands
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Operators and operands are key to Halstead's metrics.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Operators: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">These are the symbols that tell the compiler or interpreter to perform specific mathematical, logical, or relational operations — for instance, +, -, *, and, or, not.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Opperands:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> These represent the values that the operators act on, which can include constants, variables, and function calls.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Some rationale for Halstead difficulty: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Difficulty = N1/2 * n2/N2
+* N1: Number of unique operators
+* N2: Number of unique operands
+* n2: Total number of operands
+As explained in the table, it tries to quantify the difficulty of maintaining and understanding a piece of code may be. The more unique operators you have, the more different kinds of operations you need to understand. As this increases, so will difficulty, since operators can have its own set of rules and precedence. Moreover, the more often operands are used, the more you have to remember and manage as you read or write the code, however, this is seen in the context of unique operands, as these indicate less difficulty in the code, such that increasing these will make the code less difficult, presumably because it indicates a wider variety of concepts, possiblt making the code more straightforward
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cyclomatic Complexity</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Genearlly, good scores for this is those close to 1. It's generally binned into:
+1-10: Generally seen as good, as it's easy to understand and test
+11-20: Indicates moderate complexity. Managable, but might be difficult to test 
+21-40: Relatively high complexity, meaning it will be difficult to manage and test. Refactoring or breaking down the code is an ideal step if complexity is in this range
+40+: Code is very complex, difficult to maintain and test. Refactoring is highly advised
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Maintainability Index
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In general, this metric is prefered high. The higher the value, the more "maintainable" it is.
+85+: Excellent maintainability, with well structured code, well commented (if comments are included in formula) and generally adheres to best practices
+65 - 85: Good maintainaiblity, and is reasonable well-organized. Room for improvements though
+20 - 65: Moderate maintainability. Code is quite complex, and may require some efforts to understand and modify. Refactoring would be preferable for better maintainability
+0 - 20: Poor maintainability and difficult to maintain and understand. Refactoring will be good for improving maintainability</t>
+    </r>
+  </si>
+  <si>
+    <t>Total number of lines in the souruce code, including code, comments and blank lines</t>
+  </si>
+  <si>
+    <t>Keep either this or SL. Basicly this is just an aggregation of SL, C, M + B. One could argue that SL is more informative about/comparable, but its quite vague</t>
+  </si>
+  <si>
+    <t>Comments can be important factors for underestandability of code, and thus help with documentation and maintainability. This metric does however not explain quality of comments</t>
+  </si>
+  <si>
+    <t>A bit uniformative</t>
+  </si>
+  <si>
+    <t>Similarly to the raw comment count, this measure explains how well documented the code is, this just does it in a more interpretable way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bit more informative, as a measure for the actual code and thus more an indicator of actualy work that went into writing the program. Is thus a bit indicative for the estimated effort and cost </t>
+  </si>
+  <si>
+    <t>Similarly to above, however, this "may" provide more insihgts into the actual level of comments with respect to the actual code as it excludes blank lines + multi-line comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gives overall impression of documentation for the entire codebase - this including blank lines. </t>
+  </si>
+  <si>
+    <t>Quick, at-a-glance, indicator for the quality of the code</t>
+  </si>
+  <si>
+    <t>Refinement of length, as it accounts for the number of distinct operators and operands. Generally provides a more nuanced view than length alow, as it measures the "size" of the software considerings its vocabulary.</t>
+  </si>
+  <si>
+    <t>Indicates program's complexity and the efforts required to understand it</t>
+  </si>
+  <si>
+    <t>Provides a quick at-a-glance measure of how well document the code is</t>
+  </si>
+  <si>
+    <t>Motivation</t>
+  </si>
+  <si>
+    <t>Relative measure of the coding style. Useful for determining reliability, security (in the sense that non-adhering coding style which may warrant security concerns) and maintainbility, as badly adhering code will likely need more maintainance</t>
+  </si>
+  <si>
+    <t>A bit similar to above, but instead focused more on conciseness of code and similar</t>
+  </si>
+  <si>
+    <t>Gives an idea of the security and reliability of program, as too many warninigs will likely require more maintanance and more likely to break</t>
+  </si>
+  <si>
+    <t>This will not be super relevant, as i will likely address them when testing the code</t>
+  </si>
+  <si>
+    <t>Gives a measure for how likely the program is to be affected at execution. Thus useful for relaibility, security and performance efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measures the amount of mental activity needed to translate the existing algorithm into implementation in the specified program language. In simple words, it aims to quantify the effort requires to write or understand code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct quantification of required effort for understanding code </t>
+  </si>
+  <si>
+    <t>Similar to effort,  as it's basicly just a sclaed version of this and can thus be a bit redundant</t>
+  </si>
+  <si>
+    <t>Estimate for number of errors in program, and thus reliability and performance efficiency</t>
+  </si>
+  <si>
+    <t>Measure for identifying complexity and error-proneness of methods in program. Can be used to determine the risk associated with maintaining and modifying the code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compound single, quantifiable, measure of the ease with which the code can be maintained and evolved over time. Takes several factors into account, such as lines of code, cyclomatic complexity and halstead's volume. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides a relative measure for the computational efficiency of the program </t>
+  </si>
+  <si>
+    <t>Similarly, measures cpu utilization of a program at execution</t>
+  </si>
+  <si>
+    <t>Just a aggregation of C + R + W + E + F</t>
+  </si>
+  <si>
+    <t>Consider only using halstead's volume</t>
+  </si>
+  <si>
+    <t>Consider only using ratios as raw values are a bit less informative</t>
+  </si>
+  <si>
+    <t>Omit. Blank lines are not "bad" - can help with clarity etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep maybe only one of the comment ratios </t>
+  </si>
+  <si>
+    <t>Useful as is</t>
+  </si>
+  <si>
+    <t>Just an aggregation of pylint values pretty much. Consider looking into raw output of this</t>
+  </si>
+  <si>
+    <t>Just an aggregation, not super useful</t>
+  </si>
+  <si>
+    <t>May be quite relevant as is</t>
+  </si>
+  <si>
+    <t>Maybe omit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consider using either this or Effort </t>
+  </si>
+  <si>
+    <t>Consider using either this or Difficulty</t>
+  </si>
+  <si>
+    <t>Omit in favor of difficulty or effort</t>
+  </si>
+  <si>
+    <t>Basicly just a scaled volumne, so "maybe" redundant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keep as is </t>
+  </si>
+  <si>
+    <t>Use either this or effort</t>
+  </si>
+  <si>
+    <t>Use either this or difficulty</t>
+  </si>
+  <si>
+    <t>Just a scaled volumne, maybe omit</t>
+  </si>
+  <si>
+    <t>Keep as is</t>
+  </si>
+  <si>
+    <t>Consider these metrics also</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pylint Rating </t>
+  </si>
+  <si>
+    <t>Consider these metrics also for this category</t>
+  </si>
+  <si>
+    <t>Style Convention Error (C)</t>
+  </si>
+  <si>
+    <t>Comment for Selection</t>
+  </si>
+  <si>
+    <t>Consider either this or C/L ot C/SL</t>
+  </si>
+  <si>
+    <t>keep as is</t>
+  </si>
+  <si>
+    <t>Relation to security comes from potential errors at execution</t>
+  </si>
+  <si>
+    <t>A bit repetetive maybe</t>
+  </si>
+  <si>
+    <t>Refactoring Checks (R)</t>
+  </si>
+  <si>
+    <t>Errors (E)</t>
+  </si>
+  <si>
+    <t>Style Conventions (C)</t>
+  </si>
+  <si>
+    <t>Number of refactoring checks are indicative of the quality and thus reliability</t>
+  </si>
+  <si>
+    <t>Number of warnings are indcative of potential bugs and errors that can occur and thus speaks to realbility</t>
+  </si>
+  <si>
+    <t>Finalized Version</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -318,8 +1180,72 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="26"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri (Tekst)"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri (Tekst)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,8 +1300,74 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFACB9CA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF8F00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -392,11 +1384,151 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -455,6 +1587,213 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -473,15 +1812,116 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFDF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -491,6 +1931,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Rasmus Overskov Krebs" id="{4978D0D7-3A6F-0449-A11E-0837E611AF2C}" userId="S::rakr19ab@student.cbs.dk::914cb613-6c01-4867-89c0-b4080136c3e6" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -788,13 +2234,27 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D4" dT="2024-01-29T10:31:24.06" personId="{4978D0D7-3A6F-0449-A11E-0837E611AF2C}" id="{F5A8D08A-14FE-0543-9268-D11663A4170C}">
+    <text xml:space="preserve"> While primarily related to maintainability, consistent coding style can prevent security issues by avoiding constructs that are prone to errors.</text>
+  </threadedComment>
+  <threadedComment ref="D5" dT="2024-01-29T10:31:12.38" personId="{4978D0D7-3A6F-0449-A11E-0837E611AF2C}" id="{EBC5B91B-8901-A847-B4C1-E25D313B811F}">
+    <text>Pylint Rating</text>
+  </threadedComment>
+  <threadedComment ref="D6" dT="2024-01-29T10:31:00.29" personId="{4978D0D7-3A6F-0449-A11E-0837E611AF2C}" id="{8B9725AF-4CC9-CB44-9B7C-CD92EDB4602C}">
+    <text>Some flake8 rules pertain to code quality that can indirectly affect security by preventing common mistakes.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FC5125-E804-5749-A55F-8E8CD1C5214E}">
-  <dimension ref="A1:U37"/>
+  <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A30" sqref="A30"/>
+      <selection pane="topRight" activeCell="Z5" sqref="Z5:Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -806,71 +2266,95 @@
     <col min="6" max="16384" width="19" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:30" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="95"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25" t="s">
+      <c r="D2" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="24" t="s">
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="20" t="s">
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="21" t="s">
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="20" t="s">
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-    </row>
-    <row r="3" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
+    </row>
+    <row r="3" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -932,8 +2416,35 @@
       <c r="U3" s="17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -997,8 +2508,35 @@
       <c r="U4" s="3">
         <v>127</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V4" s="3">
+        <v>30</v>
+      </c>
+      <c r="W4" s="3">
+        <v>71</v>
+      </c>
+      <c r="X4" s="3">
+        <v>83</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>41</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>41</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>64</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>33</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>84</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1062,8 +2600,35 @@
       <c r="U5" s="3">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V5" s="3">
+        <v>23</v>
+      </c>
+      <c r="W5" s="3">
+        <v>25</v>
+      </c>
+      <c r="X5" s="3">
+        <v>34</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>19</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>28</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>20</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>32</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1127,8 +2692,35 @@
       <c r="U6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V6" s="3">
+        <v>3</v>
+      </c>
+      <c r="W6" s="3">
+        <v>7</v>
+      </c>
+      <c r="X6" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>6</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>6</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1192,8 +2784,35 @@
       <c r="U7" s="3">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>25</v>
+      </c>
+      <c r="X7" s="3">
+        <v>30</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>31</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>25</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1257,8 +2876,35 @@
       <c r="U8" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3">
+        <v>14</v>
+      </c>
+      <c r="X8" s="3">
+        <v>15</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>12</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>15</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>21</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1322,8 +2968,35 @@
       <c r="U9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V9" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="W9" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="X9" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1387,8 +3060,35 @@
       <c r="U10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V10" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="W10" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1452,8 +3152,35 @@
       <c r="U11" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V11" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="W11" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1533,8 +3260,32 @@
         <f>13+10+3+2+1</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V12" s="2">
+        <f>11+2+2+1</f>
+        <v>16</v>
+      </c>
+      <c r="W12" s="2">
+        <f>6+5+3+1+1</f>
+        <v>16</v>
+      </c>
+      <c r="X12" s="2">
+        <f>11+7+3+1</f>
+        <v>22</v>
+      </c>
+      <c r="Y12" s="2">
+        <f>11+2+2+1</f>
+        <v>16</v>
+      </c>
+      <c r="Z12" s="2">
+        <f>6+5+3+1+1</f>
+        <v>16</v>
+      </c>
+      <c r="AA12" s="2">
+        <f>11+7+3+1</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +3349,35 @@
       <c r="U13" s="10">
         <v>2.86</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V13" s="10">
+        <v>2.73</v>
+      </c>
+      <c r="W13" s="10">
+        <v>4</v>
+      </c>
+      <c r="X13" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>2.11</v>
+      </c>
+      <c r="Z13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AC13" s="10">
+        <v>3.45</v>
+      </c>
+      <c r="AD13" s="10">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>45</v>
       </c>
@@ -1663,8 +3441,35 @@
       <c r="U14" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V14" s="10">
+        <v>14</v>
+      </c>
+      <c r="W14" s="10">
+        <v>14</v>
+      </c>
+      <c r="X14" s="10">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="10">
+        <v>15</v>
+      </c>
+      <c r="Z14" s="10">
+        <v>11</v>
+      </c>
+      <c r="AA14" s="10">
+        <v>12</v>
+      </c>
+      <c r="AB14" s="10">
+        <v>9</v>
+      </c>
+      <c r="AC14" s="10">
+        <v>11</v>
+      </c>
+      <c r="AD14" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>44</v>
       </c>
@@ -1728,8 +3533,35 @@
       <c r="U15" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V15" s="10">
+        <v>0</v>
+      </c>
+      <c r="W15" s="10">
+        <v>0</v>
+      </c>
+      <c r="X15" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>43</v>
       </c>
@@ -1793,8 +3625,35 @@
       <c r="U16" s="10">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V16" s="10">
+        <v>2</v>
+      </c>
+      <c r="W16" s="10">
+        <v>1</v>
+      </c>
+      <c r="X16" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="10">
+        <v>3</v>
+      </c>
+      <c r="AA16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="10">
+        <v>6</v>
+      </c>
+      <c r="AC16" s="10">
+        <v>7</v>
+      </c>
+      <c r="AD16" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>42</v>
       </c>
@@ -1858,8 +3717,35 @@
       <c r="U17" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V17" s="10">
+        <v>0</v>
+      </c>
+      <c r="W17" s="10">
+        <v>0</v>
+      </c>
+      <c r="X17" s="10">
+        <v>9</v>
+      </c>
+      <c r="Y17" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="10">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="10">
+        <v>8</v>
+      </c>
+      <c r="AB17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
@@ -1923,8 +3809,35 @@
       <c r="U18" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V18" s="10">
+        <v>0</v>
+      </c>
+      <c r="W18" s="10">
+        <v>0</v>
+      </c>
+      <c r="X18" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>31</v>
       </c>
@@ -2000,15 +3913,51 @@
         <v>14</v>
       </c>
       <c r="T19" s="10">
-        <f t="shared" ref="T19:U19" si="8">SUM(T14:T18)</f>
+        <f t="shared" ref="T19:AD19" si="8">SUM(T14:T18)</f>
         <v>40</v>
       </c>
       <c r="U19" s="10">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V19" s="10">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="W19" s="10">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="X19" s="10">
+        <f>SUM(X14:X18)</f>
+        <v>18</v>
+      </c>
+      <c r="Y19" s="10">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="Z19" s="10">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="AA19" s="10">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AB19" s="10">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="AC19" s="10">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="AD19" s="10">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>32</v>
       </c>
@@ -2080,7 +4029,7 @@
         <v>0.13924050632911392</v>
       </c>
       <c r="S20" s="10">
-        <f t="shared" ref="S20:U20" si="11">S19/S4</f>
+        <f t="shared" ref="S20:AD20" si="11">S19/S4</f>
         <v>0.23728813559322035</v>
       </c>
       <c r="T20" s="10">
@@ -2091,8 +4040,44 @@
         <f t="shared" si="11"/>
         <v>0.17322834645669291</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" s="7" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V20" s="10">
+        <f t="shared" si="11"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="W20" s="10">
+        <f t="shared" si="11"/>
+        <v>0.21126760563380281</v>
+      </c>
+      <c r="X20" s="10">
+        <f t="shared" si="11"/>
+        <v>0.21686746987951808</v>
+      </c>
+      <c r="Y20" s="10">
+        <f t="shared" si="11"/>
+        <v>0.36585365853658536</v>
+      </c>
+      <c r="Z20" s="10">
+        <f t="shared" si="11"/>
+        <v>0.46341463414634149</v>
+      </c>
+      <c r="AA20" s="10">
+        <f t="shared" si="11"/>
+        <v>0.3125</v>
+      </c>
+      <c r="AB20" s="10">
+        <f t="shared" si="11"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="AC20" s="10">
+        <f t="shared" si="11"/>
+        <v>0.22619047619047619</v>
+      </c>
+      <c r="AD20" s="10">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" s="7" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
@@ -2156,8 +4141,35 @@
       <c r="U21" s="7">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V21" s="7">
+        <v>14</v>
+      </c>
+      <c r="W21" s="7">
+        <v>14</v>
+      </c>
+      <c r="X21" s="7">
+        <v>14</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>23</v>
+      </c>
+      <c r="Z21" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="7">
+        <v>36</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>17</v>
+      </c>
+      <c r="AC21" s="7">
+        <v>23</v>
+      </c>
+      <c r="AD21" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>17</v>
       </c>
@@ -2221,8 +4233,35 @@
       <c r="U22" s="7">
         <v>169.22</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V22" s="7">
+        <v>48.43</v>
+      </c>
+      <c r="W22" s="7">
+        <v>48.43</v>
+      </c>
+      <c r="X22" s="7">
+        <v>50.19</v>
+      </c>
+      <c r="Y22" s="7">
+        <v>95.91</v>
+      </c>
+      <c r="Z22" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="7">
+        <v>169.22</v>
+      </c>
+      <c r="AB22" s="7">
+        <v>64.73</v>
+      </c>
+      <c r="AC22" s="7">
+        <v>99.4</v>
+      </c>
+      <c r="AD22" s="7">
+        <v>182.68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>18</v>
       </c>
@@ -2286,8 +4325,35 @@
       <c r="U23" s="7">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V23" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="W23" s="7">
+        <v>1.69</v>
+      </c>
+      <c r="X23" s="7">
+        <v>2.25</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>2.14</v>
+      </c>
+      <c r="Z23" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AA23" s="7">
+        <v>4.42</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC23" s="7">
+        <v>3.21</v>
+      </c>
+      <c r="AD23" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>19</v>
       </c>
@@ -2351,8 +4417,35 @@
       <c r="U24" s="7">
         <v>609.22</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V24" s="7">
+        <v>81.73</v>
+      </c>
+      <c r="W24" s="7">
+        <v>81.73</v>
+      </c>
+      <c r="X24" s="7">
+        <v>112.93</v>
+      </c>
+      <c r="Y24" s="7">
+        <v>205.52</v>
+      </c>
+      <c r="Z24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="7">
+        <v>748.11</v>
+      </c>
+      <c r="AB24" s="7">
+        <v>142.4</v>
+      </c>
+      <c r="AC24" s="7">
+        <v>319.51</v>
+      </c>
+      <c r="AD24" s="7">
+        <v>913.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>20</v>
       </c>
@@ -2416,8 +4509,35 @@
       <c r="U25" s="7">
         <v>33.840000000000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V25" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="W25" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="X25" s="7">
+        <v>6.27</v>
+      </c>
+      <c r="Y25" s="7">
+        <v>11.42</v>
+      </c>
+      <c r="Z25" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AA25" s="7">
+        <v>41.56</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>7.91</v>
+      </c>
+      <c r="AC25" s="7">
+        <v>17.75</v>
+      </c>
+      <c r="AD25" s="7">
+        <v>50.74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -2481,8 +4601,35 @@
       <c r="U26" s="7">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V26" s="7">
+        <v>1.6E-2</v>
+      </c>
+      <c r="W26" s="7">
+        <v>1.6E-2</v>
+      </c>
+      <c r="X26" s="7">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Y26" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="Z26" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AA26" s="7">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="AB26" s="7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AC26" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="AD26" s="7">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
@@ -2546,8 +4693,35 @@
       <c r="U27" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>2</v>
+      </c>
+      <c r="W27" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="X27" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -2611,36 +4785,2487 @@
       <c r="U28" s="3">
         <v>64.31</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>76.069999999999993</v>
+      </c>
+      <c r="W28" s="3">
+        <v>75.05</v>
+      </c>
+      <c r="X28" s="3">
+        <v>76.81</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>84.67</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>94.7</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>77.34</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>82.52</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>75.56</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>71.72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
+      <c r="V29" s="11">
+        <v>94.2</v>
+      </c>
+      <c r="W29" s="11">
+        <v>110.7</v>
+      </c>
+      <c r="X29" s="11">
+        <v>144.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="26" t="s">
-        <v>46</v>
-      </c>
+      <c r="A37" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="C1:U1"/>
+  <mergeCells count="11">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:L2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="C1:AD1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:U2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD5F400-409A-0B4A-826F-7E5FE6579C80}">
+  <dimension ref="A1:F87"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A21" zoomScale="66" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="64.5" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" style="22" customWidth="1"/>
+    <col min="4" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+    </row>
+    <row r="2" spans="1:6" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+    </row>
+    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A16" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A18" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A21" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A22" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A23" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A24" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A27" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A28" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="51"/>
+      <c r="F30" s="56" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="99"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="99"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="99"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="99"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="99"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="99"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="99"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="99"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="99"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="99"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="99"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="99"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="99"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="99"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="99"/>
+      <c r="B46" s="99"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="99"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="99"/>
+      <c r="B47" s="99"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="99"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="99"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="99"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="99"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="99"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="99"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="99"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="99"/>
+      <c r="E52" s="99"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="99"/>
+      <c r="B53" s="99"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="99"/>
+      <c r="B54" s="99"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="99"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="99"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="99"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="99"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="99"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="99"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="99"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="99"/>
+      <c r="B58" s="99"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="99"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="99"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="99"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="99"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="99"/>
+      <c r="E60" s="99"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="99"/>
+      <c r="B61" s="99"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="99"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="99"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="99"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="99"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="99"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="99"/>
+      <c r="E64" s="99"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="99"/>
+      <c r="B65" s="99"/>
+      <c r="C65" s="99"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="99"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="99"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="99"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="99"/>
+      <c r="B67" s="99"/>
+      <c r="C67" s="99"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="99"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="99"/>
+      <c r="B68" s="99"/>
+      <c r="C68" s="99"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="99"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="99"/>
+      <c r="B69" s="99"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="99"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="99"/>
+      <c r="B70" s="99"/>
+      <c r="C70" s="99"/>
+      <c r="D70" s="99"/>
+      <c r="E70" s="99"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="99"/>
+      <c r="B71" s="99"/>
+      <c r="C71" s="99"/>
+      <c r="D71" s="99"/>
+      <c r="E71" s="99"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="99"/>
+      <c r="B72" s="99"/>
+      <c r="C72" s="99"/>
+      <c r="D72" s="99"/>
+      <c r="E72" s="99"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="99"/>
+      <c r="B73" s="99"/>
+      <c r="C73" s="99"/>
+      <c r="D73" s="99"/>
+      <c r="E73" s="99"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="99"/>
+      <c r="B74" s="99"/>
+      <c r="C74" s="99"/>
+      <c r="D74" s="99"/>
+      <c r="E74" s="99"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="99"/>
+      <c r="B75" s="99"/>
+      <c r="C75" s="99"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="99"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="99"/>
+      <c r="B76" s="99"/>
+      <c r="C76" s="99"/>
+      <c r="D76" s="99"/>
+      <c r="E76" s="99"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="99"/>
+      <c r="B77" s="99"/>
+      <c r="C77" s="99"/>
+      <c r="D77" s="99"/>
+      <c r="E77" s="99"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="99"/>
+      <c r="B78" s="99"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="99"/>
+      <c r="E78" s="99"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="99"/>
+      <c r="B79" s="99"/>
+      <c r="C79" s="99"/>
+      <c r="D79" s="99"/>
+      <c r="E79" s="99"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="99"/>
+      <c r="B80" s="99"/>
+      <c r="C80" s="99"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="99"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="99"/>
+      <c r="B81" s="99"/>
+      <c r="C81" s="99"/>
+      <c r="D81" s="99"/>
+      <c r="E81" s="99"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="99"/>
+      <c r="B82" s="99"/>
+      <c r="C82" s="99"/>
+      <c r="D82" s="99"/>
+      <c r="E82" s="99"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="99"/>
+      <c r="B83" s="99"/>
+      <c r="C83" s="99"/>
+      <c r="D83" s="99"/>
+      <c r="E83" s="99"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="99"/>
+      <c r="B84" s="99"/>
+      <c r="C84" s="99"/>
+      <c r="D84" s="99"/>
+      <c r="E84" s="99"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="99"/>
+      <c r="B85" s="99"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="99"/>
+      <c r="E85" s="99"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="99"/>
+      <c r="B86" s="99"/>
+      <c r="C86" s="99"/>
+      <c r="D86" s="99"/>
+      <c r="E86" s="99"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="99"/>
+      <c r="B87" s="99"/>
+      <c r="C87" s="99"/>
+      <c r="D87" s="99"/>
+      <c r="E87" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A31:E87"/>
+    <mergeCell ref="A1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA854712-0759-994C-A9BC-F491ED5B33AA}">
+  <dimension ref="A1:N47"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="106" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="G1" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+    </row>
+    <row r="2" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="102" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="104"/>
+      <c r="G2" s="102" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="104"/>
+    </row>
+    <row r="3" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="114"/>
+      <c r="I3" s="115" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="110"/>
+      <c r="K3" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="108"/>
+      <c r="M3" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="110"/>
+    </row>
+    <row r="4" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="K4" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="89" t="s">
+        <v>157</v>
+      </c>
+      <c r="M4" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="88" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="L5" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="M5" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="70" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="K6" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="L6" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="M6" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="111" t="s">
+        <v>153</v>
+      </c>
+      <c r="J7" s="112"/>
+      <c r="K7" s="111" t="s">
+        <v>153</v>
+      </c>
+      <c r="L7" s="112"/>
+      <c r="M7" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="73" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="65"/>
+      <c r="K8" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="M8" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="J9" s="55"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" s="70" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="57"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="92" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" s="57"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="55"/>
+    </row>
+    <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="I12" s="57"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="55"/>
+    </row>
+    <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" s="57"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="55"/>
+    </row>
+    <row r="14" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="I14" s="57"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="55"/>
+    </row>
+    <row r="15" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" s="113"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="39"/>
+    </row>
+    <row r="16" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="I16" s="82"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="39"/>
+    </row>
+    <row r="17" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="G17" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" s="82"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="74"/>
+      <c r="N17" s="74"/>
+    </row>
+    <row r="18" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="G18" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="83"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="77"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="52"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="52"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="52"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="22"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="22"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G47" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2:E2" r:id="rId1" display="ISO 5055" xr:uid="{ED262037-3A3D-4744-B239-76D2CA4C7BC5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D0DEC6-391A-0147-B4F5-B4ED50B60C04}">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="67" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.1640625" style="53" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="53" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="F1" s="60"/>
+    </row>
+    <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="57" t="str" cm="1">
+        <f t="array" ref="A2:A28">'Metric Description'!A4:A30</f>
+        <v>Lines of Code (L)</v>
+      </c>
+      <c r="B2" s="58" t="str" cm="1">
+        <f t="array" ref="B2:B28">'Metric Description'!F4:F30</f>
+        <v>Keep either this or SL. Basicly this is just an aggregation of SL, C, M + B. One could argue that SL is more informative about/comparable, but its quite vague</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+    </row>
+    <row r="3" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="57" t="str">
+        <v>Source Lines of Code (SL)</v>
+      </c>
+      <c r="B3" s="58" t="str">
+        <v xml:space="preserve">A bit more informative, as a measure for the actual code and thus more an indicator of actualy work that went into writing the program. Is thus a bit indicative for the estimated effort and cost </v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="122"/>
+    </row>
+    <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="57" t="str">
+        <v>Single Line Comments (C)</v>
+      </c>
+      <c r="B4" s="58" t="str">
+        <v>Comments can be important factors for underestandability of code, and thus help with documentation and maintainability. This metric does however not explain quality of comments</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="124"/>
+    </row>
+    <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="57" t="str">
+        <v>Multiline Comments (M)</v>
+      </c>
+      <c r="B5" s="58" t="str">
+        <v>Similarly here, however, we might find here that no doc-strings are included</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="54"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="124"/>
+    </row>
+    <row r="6" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="57" t="str">
+        <v>Blank lines (B)</v>
+      </c>
+      <c r="B6" s="58" t="str">
+        <v>A bit uniformative</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="54"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="125"/>
+    </row>
+    <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="57" t="str">
+        <v>C / L</v>
+      </c>
+      <c r="B7" s="58" t="str">
+        <v>Similarly to the raw comment count, this measure explains how well documented the code is, this just does it in a more interpretable way</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="54"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="124"/>
+    </row>
+    <row r="8" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="57" t="str">
+        <v>C / SL</v>
+      </c>
+      <c r="B8" s="58" t="str">
+        <v>Similarly to above, however, this "may" provide more insihgts into the actual level of comments with respect to the actual code as it excludes blank lines + multi-line comments</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="54"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="124"/>
+    </row>
+    <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="57" t="str">
+        <v>C + M / L</v>
+      </c>
+      <c r="B9" s="58" t="str">
+        <v xml:space="preserve">Gives overall impression of documentation for the entire codebase - this including blank lines. </v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="54"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="124"/>
+    </row>
+    <row r="10" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" s="57" t="str">
+        <v>Number flake8 Messages</v>
+      </c>
+      <c r="B10" s="58" t="str">
+        <v>Also counts number of broken best practices, and similarly also uses pylint, so therefore it can be removed</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="54"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="124"/>
+    </row>
+    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="57" t="str">
+        <v>Pylint Rating</v>
+      </c>
+      <c r="B11" s="58" t="str">
+        <v>Quick, at-a-glance, indicator for the quality of the code</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="54"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="124"/>
+    </row>
+    <row r="12" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A12" s="57" t="str">
+        <v xml:space="preserve">Style Convenetion Errors (C) </v>
+      </c>
+      <c r="B12" s="58" t="str">
+        <v>Relative measure of the coding style. Useful for determining reliability, security (in the sense that non-adhering coding style which may warrant security concerns) and maintainbility, as badly adhering code will likely need more maintainance</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="54"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="124"/>
+    </row>
+    <row r="13" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="57" t="str">
+        <v xml:space="preserve">Refactoring Checks (R) </v>
+      </c>
+      <c r="B13" s="58" t="str">
+        <v>A bit similar to above, but instead focused more on conciseness of code and similar</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="54"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="124"/>
+    </row>
+    <row r="14" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="57" t="str">
+        <v>Warnings (W)</v>
+      </c>
+      <c r="B14" s="58" t="str">
+        <v>Gives an idea of the security and reliability of program, as too many warninigs will likely require more maintanance and more likely to break</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="54"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="123"/>
+    </row>
+    <row r="15" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="57" t="str">
+        <v xml:space="preserve">Errors (E) </v>
+      </c>
+      <c r="B15" s="58" t="str">
+        <v>Gives a measure for how likely the program is to be affected at execution. Thus useful for relaibility, security and performance efficiency</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="54"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="123"/>
+    </row>
+    <row r="16" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="57" t="str">
+        <v>Fatal Errors (F)</v>
+      </c>
+      <c r="B16" s="58" t="str">
+        <v>This will not be super relevant, as i will likely address them when testing the code</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="54"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+    </row>
+    <row r="17" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="57" t="str">
+        <v xml:space="preserve">Total Messages (TM) </v>
+      </c>
+      <c r="B17" s="58" t="str">
+        <v>Just a aggregation of C + R + W + E + F</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="54"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130"/>
+    </row>
+    <row r="18" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="57" t="str">
+        <v>TM /L</v>
+      </c>
+      <c r="B18" s="58" t="str">
+        <v>Provides a quick at-a-glance measure of how well document the code is</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="54"/>
+      <c r="F18" s="54"/>
+    </row>
+    <row r="19" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A19" s="57" t="str">
+        <v>Halstead Length</v>
+      </c>
+      <c r="B19" s="58" t="str">
+        <v xml:space="preserve">Generally just a fundamental measure that is used as the basis for other metrics. Reason for keeping it would merely be for providing a quick overview of the size of the code in terms of its basic components </v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="54"/>
+      <c r="F19" s="54"/>
+    </row>
+    <row r="20" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" s="57" t="str">
+        <v>Halstead Volume</v>
+      </c>
+      <c r="B20" s="58" t="str">
+        <v>Refinement of length, as it accounts for the number of distinct operators and operands. Generally provides a more nuanced view than length alow, as it measures the "size" of the software considerings its vocabulary.</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="54"/>
+      <c r="F20" s="54"/>
+    </row>
+    <row r="21" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="57" t="str">
+        <v>Halstead Difficulty</v>
+      </c>
+      <c r="B21" s="58" t="str">
+        <v>Indicates program's complexity and the efforts required to understand it</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="54"/>
+      <c r="F21" s="54"/>
+    </row>
+    <row r="22" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="57" t="str">
+        <v>Halstead Effort</v>
+      </c>
+      <c r="B22" s="58" t="str">
+        <v xml:space="preserve">Direct quantification of required effort for understanding code </v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="54"/>
+      <c r="F22" s="54"/>
+    </row>
+    <row r="23" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="57" t="str">
+        <v>Halstead Time to Prgram</v>
+      </c>
+      <c r="B23" s="58" t="str">
+        <v>Similar to effort,  as it's basicly just a sclaed version of this and can thus be a bit redundant</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="54"/>
+      <c r="F23" s="54"/>
+    </row>
+    <row r="24" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="57" t="str">
+        <v>Halstead Bugs</v>
+      </c>
+      <c r="B24" s="58" t="str">
+        <v>Estimate for number of errors in program, and thus reliability and performance efficiency</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="54"/>
+      <c r="F24" s="54"/>
+    </row>
+    <row r="25" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="57" t="str">
+        <v xml:space="preserve"> Cyclomatic Complexity</v>
+      </c>
+      <c r="B25" s="58" t="str">
+        <v>Measure for identifying complexity and error-proneness of methods in program. Can be used to determine the risk associated with maintaining and modifying the code.</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="54"/>
+      <c r="F25" s="54"/>
+    </row>
+    <row r="26" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A26" s="57" t="str">
+        <v>Maintainability Index</v>
+      </c>
+      <c r="B26" s="58" t="str">
+        <v xml:space="preserve">Compound single, quantifiable, measure of the ease with which the code can be maintained and evolved over time. Takes several factors into account, such as lines of code, cyclomatic complexity and halstead's volume. </v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="54"/>
+      <c r="F26" s="54"/>
+    </row>
+    <row r="27" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="57" t="str">
+        <v>Total Memory Usage (MiB)</v>
+      </c>
+      <c r="B27" s="58" t="str">
+        <v xml:space="preserve">Provides a relative measure for the computational efficiency of the program </v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="54"/>
+      <c r="F27" s="54"/>
+    </row>
+    <row r="28" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="61" t="str">
+        <v>CPU Usage Per Cent</v>
+      </c>
+      <c r="B28" s="62" t="str">
+        <v>Similarly, measures cpu utilization of a program at execution</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="60"/>
+      <c r="F28" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F12ED22-120A-9348-B165-75F19AD6E43D}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="117"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="117"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="117"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="117"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="117"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="117"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="117"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="117"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="117"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="117"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="117"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="117"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="117"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="117"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="117"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="117"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="117"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="117"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="117"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="117"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="117"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="117"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dimension_reduction/PrincipalComponentAnalysis_results.xlsx
+++ b/dimension_reduction/PrincipalComponentAnalysis_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasmuskrebs/Documents/School/master_thesis/repo/dimension_reduction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642FED7B-6633-9544-BE3F-1DE29B4E14F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56389631-F549-6340-8D3B-1D55D52E0284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" activeTab="2" xr2:uid="{C8214493-C4A5-054C-B17C-3B65FE6FA079}"/>
+    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="19960" firstSheet="1" activeTab="1" xr2:uid="{C8214493-C4A5-054C-B17C-3B65FE6FA079}"/>
   </bookViews>
   <sheets>
     <sheet name="Dimension Reduction" sheetId="1" r:id="rId1"/>
@@ -1528,7 +1528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1794,24 +1794,42 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1821,6 +1839,27 @@
     <xf numFmtId="0" fontId="14" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1836,31 +1875,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1868,46 +1892,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1940,9 +1924,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 Tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1980,7 +1964,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2086,7 +2070,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2228,7 +2212,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2267,40 +2251,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="95" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="95"/>
-      <c r="AD1" s="95"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -2308,51 +2292,51 @@
       <c r="C2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="98" t="s">
+      <c r="D2" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="97" t="s">
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="93" t="s">
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="94" t="s">
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="93" t="s">
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="94" t="s">
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="93" t="s">
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="94" t="s">
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="94"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
     </row>
     <row r="3" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
@@ -4846,17 +4830,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="V2:X2"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="C1:AD1"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:U2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="V2:X2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4868,8 +4852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD5F400-409A-0B4A-826F-7E5FE6579C80}">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" zoomScale="66" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="117" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4882,22 +4866,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
     </row>
     <row r="2" spans="1:6" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
     </row>
     <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
@@ -5458,405 +5442,405 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="99" t="s">
+      <c r="A31" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="99"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
+      <c r="A32" s="105"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="99"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="99"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
+      <c r="A34" s="105"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="99"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="99"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
+      <c r="A36" s="105"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="99"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
+      <c r="A37" s="105"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="99"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
+      <c r="A38" s="105"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="99"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
+      <c r="A39" s="105"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="99"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
+      <c r="A40" s="105"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="99"/>
-      <c r="B41" s="99"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="99"/>
+      <c r="A41" s="105"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="99"/>
-      <c r="B42" s="99"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99"/>
+      <c r="A42" s="105"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="99"/>
-      <c r="B43" s="99"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
+      <c r="A43" s="105"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="99"/>
-      <c r="B44" s="99"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
+      <c r="A44" s="105"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="99"/>
-      <c r="B45" s="99"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
+      <c r="A45" s="105"/>
+      <c r="B45" s="105"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="99"/>
-      <c r="B46" s="99"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99"/>
+      <c r="A46" s="105"/>
+      <c r="B46" s="105"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="99"/>
-      <c r="B47" s="99"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
+      <c r="A47" s="105"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="99"/>
-      <c r="B48" s="99"/>
-      <c r="C48" s="99"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
+      <c r="A48" s="105"/>
+      <c r="B48" s="105"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="99"/>
-      <c r="B49" s="99"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
+      <c r="A49" s="105"/>
+      <c r="B49" s="105"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="99"/>
-      <c r="B50" s="99"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99"/>
+      <c r="A50" s="105"/>
+      <c r="B50" s="105"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="99"/>
-      <c r="B51" s="99"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99"/>
+      <c r="A51" s="105"/>
+      <c r="B51" s="105"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="99"/>
-      <c r="B52" s="99"/>
-      <c r="C52" s="99"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="99"/>
+      <c r="A52" s="105"/>
+      <c r="B52" s="105"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="99"/>
-      <c r="B53" s="99"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
+      <c r="A53" s="105"/>
+      <c r="B53" s="105"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="99"/>
-      <c r="B54" s="99"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="99"/>
+      <c r="A54" s="105"/>
+      <c r="B54" s="105"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="105"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="99"/>
-      <c r="B55" s="99"/>
-      <c r="C55" s="99"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="99"/>
+      <c r="A55" s="105"/>
+      <c r="B55" s="105"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="105"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="99"/>
-      <c r="B56" s="99"/>
-      <c r="C56" s="99"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="99"/>
+      <c r="A56" s="105"/>
+      <c r="B56" s="105"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="99"/>
-      <c r="B57" s="99"/>
-      <c r="C57" s="99"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="99"/>
+      <c r="A57" s="105"/>
+      <c r="B57" s="105"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="99"/>
-      <c r="B58" s="99"/>
-      <c r="C58" s="99"/>
-      <c r="D58" s="99"/>
-      <c r="E58" s="99"/>
+      <c r="A58" s="105"/>
+      <c r="B58" s="105"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="105"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="99"/>
-      <c r="B59" s="99"/>
-      <c r="C59" s="99"/>
-      <c r="D59" s="99"/>
-      <c r="E59" s="99"/>
+      <c r="A59" s="105"/>
+      <c r="B59" s="105"/>
+      <c r="C59" s="105"/>
+      <c r="D59" s="105"/>
+      <c r="E59" s="105"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="99"/>
-      <c r="B60" s="99"/>
-      <c r="C60" s="99"/>
-      <c r="D60" s="99"/>
-      <c r="E60" s="99"/>
+      <c r="A60" s="105"/>
+      <c r="B60" s="105"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="105"/>
+      <c r="E60" s="105"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="99"/>
-      <c r="B61" s="99"/>
-      <c r="C61" s="99"/>
-      <c r="D61" s="99"/>
-      <c r="E61" s="99"/>
+      <c r="A61" s="105"/>
+      <c r="B61" s="105"/>
+      <c r="C61" s="105"/>
+      <c r="D61" s="105"/>
+      <c r="E61" s="105"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="99"/>
-      <c r="B62" s="99"/>
-      <c r="C62" s="99"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="99"/>
+      <c r="A62" s="105"/>
+      <c r="B62" s="105"/>
+      <c r="C62" s="105"/>
+      <c r="D62" s="105"/>
+      <c r="E62" s="105"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="99"/>
-      <c r="B63" s="99"/>
-      <c r="C63" s="99"/>
-      <c r="D63" s="99"/>
-      <c r="E63" s="99"/>
+      <c r="A63" s="105"/>
+      <c r="B63" s="105"/>
+      <c r="C63" s="105"/>
+      <c r="D63" s="105"/>
+      <c r="E63" s="105"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="99"/>
-      <c r="B64" s="99"/>
-      <c r="C64" s="99"/>
-      <c r="D64" s="99"/>
-      <c r="E64" s="99"/>
+      <c r="A64" s="105"/>
+      <c r="B64" s="105"/>
+      <c r="C64" s="105"/>
+      <c r="D64" s="105"/>
+      <c r="E64" s="105"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="99"/>
-      <c r="B65" s="99"/>
-      <c r="C65" s="99"/>
-      <c r="D65" s="99"/>
-      <c r="E65" s="99"/>
+      <c r="A65" s="105"/>
+      <c r="B65" s="105"/>
+      <c r="C65" s="105"/>
+      <c r="D65" s="105"/>
+      <c r="E65" s="105"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="99"/>
-      <c r="B66" s="99"/>
-      <c r="C66" s="99"/>
-      <c r="D66" s="99"/>
-      <c r="E66" s="99"/>
+      <c r="A66" s="105"/>
+      <c r="B66" s="105"/>
+      <c r="C66" s="105"/>
+      <c r="D66" s="105"/>
+      <c r="E66" s="105"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="99"/>
-      <c r="B67" s="99"/>
-      <c r="C67" s="99"/>
-      <c r="D67" s="99"/>
-      <c r="E67" s="99"/>
+      <c r="A67" s="105"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="105"/>
+      <c r="E67" s="105"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="99"/>
-      <c r="B68" s="99"/>
-      <c r="C68" s="99"/>
-      <c r="D68" s="99"/>
-      <c r="E68" s="99"/>
+      <c r="A68" s="105"/>
+      <c r="B68" s="105"/>
+      <c r="C68" s="105"/>
+      <c r="D68" s="105"/>
+      <c r="E68" s="105"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="99"/>
-      <c r="B69" s="99"/>
-      <c r="C69" s="99"/>
-      <c r="D69" s="99"/>
-      <c r="E69" s="99"/>
+      <c r="A69" s="105"/>
+      <c r="B69" s="105"/>
+      <c r="C69" s="105"/>
+      <c r="D69" s="105"/>
+      <c r="E69" s="105"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="99"/>
-      <c r="B70" s="99"/>
-      <c r="C70" s="99"/>
-      <c r="D70" s="99"/>
-      <c r="E70" s="99"/>
+      <c r="A70" s="105"/>
+      <c r="B70" s="105"/>
+      <c r="C70" s="105"/>
+      <c r="D70" s="105"/>
+      <c r="E70" s="105"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="99"/>
-      <c r="B71" s="99"/>
-      <c r="C71" s="99"/>
-      <c r="D71" s="99"/>
-      <c r="E71" s="99"/>
+      <c r="A71" s="105"/>
+      <c r="B71" s="105"/>
+      <c r="C71" s="105"/>
+      <c r="D71" s="105"/>
+      <c r="E71" s="105"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="99"/>
-      <c r="B72" s="99"/>
-      <c r="C72" s="99"/>
-      <c r="D72" s="99"/>
-      <c r="E72" s="99"/>
+      <c r="A72" s="105"/>
+      <c r="B72" s="105"/>
+      <c r="C72" s="105"/>
+      <c r="D72" s="105"/>
+      <c r="E72" s="105"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="99"/>
-      <c r="B73" s="99"/>
-      <c r="C73" s="99"/>
-      <c r="D73" s="99"/>
-      <c r="E73" s="99"/>
+      <c r="A73" s="105"/>
+      <c r="B73" s="105"/>
+      <c r="C73" s="105"/>
+      <c r="D73" s="105"/>
+      <c r="E73" s="105"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="99"/>
-      <c r="B74" s="99"/>
-      <c r="C74" s="99"/>
-      <c r="D74" s="99"/>
-      <c r="E74" s="99"/>
+      <c r="A74" s="105"/>
+      <c r="B74" s="105"/>
+      <c r="C74" s="105"/>
+      <c r="D74" s="105"/>
+      <c r="E74" s="105"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="99"/>
-      <c r="B75" s="99"/>
-      <c r="C75" s="99"/>
-      <c r="D75" s="99"/>
-      <c r="E75" s="99"/>
+      <c r="A75" s="105"/>
+      <c r="B75" s="105"/>
+      <c r="C75" s="105"/>
+      <c r="D75" s="105"/>
+      <c r="E75" s="105"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="99"/>
-      <c r="B76" s="99"/>
-      <c r="C76" s="99"/>
-      <c r="D76" s="99"/>
-      <c r="E76" s="99"/>
+      <c r="A76" s="105"/>
+      <c r="B76" s="105"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="105"/>
+      <c r="E76" s="105"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="99"/>
-      <c r="B77" s="99"/>
-      <c r="C77" s="99"/>
-      <c r="D77" s="99"/>
-      <c r="E77" s="99"/>
+      <c r="A77" s="105"/>
+      <c r="B77" s="105"/>
+      <c r="C77" s="105"/>
+      <c r="D77" s="105"/>
+      <c r="E77" s="105"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="99"/>
-      <c r="B78" s="99"/>
-      <c r="C78" s="99"/>
-      <c r="D78" s="99"/>
-      <c r="E78" s="99"/>
+      <c r="A78" s="105"/>
+      <c r="B78" s="105"/>
+      <c r="C78" s="105"/>
+      <c r="D78" s="105"/>
+      <c r="E78" s="105"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="99"/>
-      <c r="B79" s="99"/>
-      <c r="C79" s="99"/>
-      <c r="D79" s="99"/>
-      <c r="E79" s="99"/>
+      <c r="A79" s="105"/>
+      <c r="B79" s="105"/>
+      <c r="C79" s="105"/>
+      <c r="D79" s="105"/>
+      <c r="E79" s="105"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="99"/>
-      <c r="B80" s="99"/>
-      <c r="C80" s="99"/>
-      <c r="D80" s="99"/>
-      <c r="E80" s="99"/>
+      <c r="A80" s="105"/>
+      <c r="B80" s="105"/>
+      <c r="C80" s="105"/>
+      <c r="D80" s="105"/>
+      <c r="E80" s="105"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="99"/>
-      <c r="B81" s="99"/>
-      <c r="C81" s="99"/>
-      <c r="D81" s="99"/>
-      <c r="E81" s="99"/>
+      <c r="A81" s="105"/>
+      <c r="B81" s="105"/>
+      <c r="C81" s="105"/>
+      <c r="D81" s="105"/>
+      <c r="E81" s="105"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="99"/>
-      <c r="B82" s="99"/>
-      <c r="C82" s="99"/>
-      <c r="D82" s="99"/>
-      <c r="E82" s="99"/>
+      <c r="A82" s="105"/>
+      <c r="B82" s="105"/>
+      <c r="C82" s="105"/>
+      <c r="D82" s="105"/>
+      <c r="E82" s="105"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="99"/>
-      <c r="B83" s="99"/>
-      <c r="C83" s="99"/>
-      <c r="D83" s="99"/>
-      <c r="E83" s="99"/>
+      <c r="A83" s="105"/>
+      <c r="B83" s="105"/>
+      <c r="C83" s="105"/>
+      <c r="D83" s="105"/>
+      <c r="E83" s="105"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="99"/>
-      <c r="B84" s="99"/>
-      <c r="C84" s="99"/>
-      <c r="D84" s="99"/>
-      <c r="E84" s="99"/>
+      <c r="A84" s="105"/>
+      <c r="B84" s="105"/>
+      <c r="C84" s="105"/>
+      <c r="D84" s="105"/>
+      <c r="E84" s="105"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="99"/>
-      <c r="B85" s="99"/>
-      <c r="C85" s="99"/>
-      <c r="D85" s="99"/>
-      <c r="E85" s="99"/>
+      <c r="A85" s="105"/>
+      <c r="B85" s="105"/>
+      <c r="C85" s="105"/>
+      <c r="D85" s="105"/>
+      <c r="E85" s="105"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="99"/>
-      <c r="B86" s="99"/>
-      <c r="C86" s="99"/>
-      <c r="D86" s="99"/>
-      <c r="E86" s="99"/>
+      <c r="A86" s="105"/>
+      <c r="B86" s="105"/>
+      <c r="C86" s="105"/>
+      <c r="D86" s="105"/>
+      <c r="E86" s="105"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="99"/>
-      <c r="B87" s="99"/>
-      <c r="C87" s="99"/>
-      <c r="D87" s="99"/>
-      <c r="E87" s="99"/>
+      <c r="A87" s="105"/>
+      <c r="B87" s="105"/>
+      <c r="C87" s="105"/>
+      <c r="D87" s="105"/>
+      <c r="E87" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5871,8 +5855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA854712-0759-994C-A9BC-F491ED5B33AA}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" topLeftCell="F2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5881,40 +5865,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="G1" s="105" t="s">
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="G1" s="118" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
     </row>
     <row r="2" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
-      <c r="G2" s="102" t="s">
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
+      <c r="G2" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="104"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="117"/>
     </row>
     <row r="3" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="23" t="s">
@@ -5929,22 +5913,22 @@
       <c r="E3" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="107" t="s">
+      <c r="G3" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="114"/>
-      <c r="I3" s="115" t="s">
+      <c r="H3" s="112"/>
+      <c r="I3" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="110"/>
-      <c r="K3" s="107" t="s">
+      <c r="J3" s="114"/>
+      <c r="K3" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="108"/>
-      <c r="M3" s="109" t="s">
+      <c r="L3" s="120"/>
+      <c r="M3" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="110"/>
+      <c r="N3" s="114"/>
     </row>
     <row r="4" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
@@ -6075,14 +6059,14 @@
       <c r="H7" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="I7" s="111" t="s">
+      <c r="I7" s="108" t="s">
         <v>153</v>
       </c>
-      <c r="J7" s="112"/>
-      <c r="K7" s="111" t="s">
+      <c r="J7" s="109"/>
+      <c r="K7" s="108" t="s">
         <v>153</v>
       </c>
-      <c r="L7" s="112"/>
+      <c r="L7" s="109"/>
       <c r="M7" s="71" t="s">
         <v>43</v>
       </c>
@@ -6279,10 +6263,10 @@
       <c r="E15" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="111" t="s">
+      <c r="G15" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="H15" s="113"/>
+      <c r="H15" s="110"/>
       <c r="I15" s="82"/>
       <c r="J15" s="74"/>
       <c r="K15" s="82"/>
@@ -6494,17 +6478,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="G1:N1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2:E2" r:id="rId1" display="ISO 5055" xr:uid="{ED262037-3A3D-4744-B239-76D2CA4C7BC5}"/>
@@ -6519,8 +6503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D0DEC6-391A-0147-B4F5-B4ED50B60C04}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="67" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="110" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6558,14 +6542,14 @@
         <v>135</v>
       </c>
       <c r="D2" s="54"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
     </row>
     <row r="3" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="57" t="str">
@@ -6578,14 +6562,14 @@
         <v>135</v>
       </c>
       <c r="D3" s="54"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="122"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="96"/>
     </row>
     <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="57" t="str">
@@ -6598,14 +6582,14 @@
         <v>136</v>
       </c>
       <c r="D4" s="54"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="124"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="57" t="str">
@@ -6618,14 +6602,14 @@
         <v>136</v>
       </c>
       <c r="D5" s="54"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="124"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="54"/>
     </row>
     <row r="6" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="57" t="str">
@@ -6638,14 +6622,14 @@
         <v>137</v>
       </c>
       <c r="D6" s="54"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="125"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="97"/>
     </row>
     <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="57" t="str">
@@ -6658,14 +6642,14 @@
         <v>138</v>
       </c>
       <c r="D7" s="54"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="124"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="54"/>
     </row>
     <row r="8" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="57" t="str">
@@ -6678,14 +6662,14 @@
         <v>80</v>
       </c>
       <c r="D8" s="54"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="124"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="54"/>
     </row>
     <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="57" t="str">
@@ -6698,14 +6682,14 @@
         <v>80</v>
       </c>
       <c r="D9" s="54"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="124"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="54"/>
     </row>
     <row r="10" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="57" t="str">
@@ -6718,14 +6702,14 @@
         <v>140</v>
       </c>
       <c r="D10" s="54"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="124"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="54"/>
     </row>
     <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="57" t="str">
@@ -6738,14 +6722,14 @@
         <v>139</v>
       </c>
       <c r="D11" s="54"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="124"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="54"/>
     </row>
     <row r="12" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="57" t="str">
@@ -6758,14 +6742,14 @@
         <v>80</v>
       </c>
       <c r="D12" s="54"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="124"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="54"/>
     </row>
     <row r="13" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="57" t="str">
@@ -6778,14 +6762,14 @@
         <v>80</v>
       </c>
       <c r="D13" s="54"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="124"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="54"/>
     </row>
     <row r="14" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="57" t="str">
@@ -6798,14 +6782,11 @@
         <v>80</v>
       </c>
       <c r="D14" s="54"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="123"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="57" t="str">
@@ -6818,14 +6799,11 @@
         <v>80</v>
       </c>
       <c r="D15" s="54"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="131"/>
-      <c r="L15" s="123"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="54"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="57" t="str">
@@ -6838,16 +6816,10 @@
         <v>92</v>
       </c>
       <c r="D16" s="54"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-    </row>
-    <row r="17" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="E16" s="93"/>
+      <c r="F16" s="54"/>
+    </row>
+    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="57" t="str">
         <v xml:space="preserve">Total Messages (TM) </v>
       </c>
@@ -6858,16 +6830,10 @@
         <v>141</v>
       </c>
       <c r="D17" s="54"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
-    </row>
-    <row r="18" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="E17" s="93"/>
+      <c r="F17" s="54"/>
+    </row>
+    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="57" t="str">
         <v>TM /L</v>
       </c>
@@ -6880,7 +6846,7 @@
       <c r="D18" s="54"/>
       <c r="F18" s="54"/>
     </row>
-    <row r="19" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="57" t="str">
         <v>Halstead Length</v>
       </c>
@@ -6893,7 +6859,7 @@
       <c r="D19" s="54"/>
       <c r="F19" s="54"/>
     </row>
-    <row r="20" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="57" t="str">
         <v>Halstead Volume</v>
       </c>
@@ -6906,7 +6872,7 @@
       <c r="D20" s="54"/>
       <c r="F20" s="54"/>
     </row>
-    <row r="21" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="57" t="str">
         <v>Halstead Difficulty</v>
       </c>
@@ -6919,7 +6885,7 @@
       <c r="D21" s="54"/>
       <c r="F21" s="54"/>
     </row>
-    <row r="22" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="57" t="str">
         <v>Halstead Effort</v>
       </c>
@@ -6932,7 +6898,7 @@
       <c r="D22" s="54"/>
       <c r="F22" s="54"/>
     </row>
-    <row r="23" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="57" t="str">
         <v>Halstead Time to Prgram</v>
       </c>
@@ -6945,7 +6911,7 @@
       <c r="D23" s="54"/>
       <c r="F23" s="54"/>
     </row>
-    <row r="24" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="57" t="str">
         <v>Halstead Bugs</v>
       </c>
@@ -6958,7 +6924,7 @@
       <c r="D24" s="54"/>
       <c r="F24" s="54"/>
     </row>
-    <row r="25" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="57" t="str">
         <v xml:space="preserve"> Cyclomatic Complexity</v>
       </c>
@@ -6971,7 +6937,7 @@
       <c r="D25" s="54"/>
       <c r="F25" s="54"/>
     </row>
-    <row r="26" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" s="57" t="str">
         <v>Maintainability Index</v>
       </c>
@@ -6984,7 +6950,7 @@
       <c r="D26" s="54"/>
       <c r="F26" s="54"/>
     </row>
-    <row r="27" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="57" t="str">
         <v>Total Memory Usage (MiB)</v>
       </c>
@@ -6997,7 +6963,7 @@
       <c r="D27" s="54"/>
       <c r="F27" s="54"/>
     </row>
-    <row r="28" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="str">
         <v>CPU Usage Per Cent</v>
       </c>
@@ -7036,231 +7002,231 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="124" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="117"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="117"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="117"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="117"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
+      <c r="A6" s="125"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="117"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
+      <c r="A7" s="125"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="117"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
+      <c r="A8" s="125"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="117"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
+      <c r="A9" s="125"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="117"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
+      <c r="A10" s="125"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="117"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
+      <c r="A11" s="125"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="117"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
+      <c r="A12" s="125"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="117"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
+      <c r="A13" s="125"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="117"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
+      <c r="A14" s="125"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="117"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
+      <c r="A15" s="125"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="117"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
+      <c r="A16" s="125"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="117"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
+      <c r="A17" s="125"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="117"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
+      <c r="A18" s="125"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="117"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
+      <c r="A19" s="125"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="117"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
+      <c r="A20" s="125"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="117"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
+      <c r="A21" s="125"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="117"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
+      <c r="A22" s="125"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="117"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
+      <c r="A23" s="125"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="117"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
+      <c r="A24" s="125"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="117"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
+      <c r="A25" s="125"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/dimension_reduction/PrincipalComponentAnalysis_results.xlsx
+++ b/dimension_reduction/PrincipalComponentAnalysis_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasmuskrebs/Documents/School/master_thesis/repo/dimension_reduction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56389631-F549-6340-8D3B-1D55D52E0284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C337DC0C-F8F2-3E4E-AB28-FD546D9E3B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="19960" firstSheet="1" activeTab="1" xr2:uid="{C8214493-C4A5-054C-B17C-3B65FE6FA079}"/>
+    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="19960" activeTab="3" xr2:uid="{C8214493-C4A5-054C-B17C-3B65FE6FA079}"/>
   </bookViews>
   <sheets>
     <sheet name="Dimension Reduction" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Additional Information" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2236,9 +2237,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FC5125-E804-5749-A55F-8E8CD1C5214E}">
   <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z5" sqref="Z5:Z8"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3869,47 +3870,47 @@
         <v>20</v>
       </c>
       <c r="M19" s="10">
-        <f t="shared" ref="M19" si="1">SUM(M14:M18)</f>
+        <f t="shared" ref="M19:S19" si="1">SUM(M14:M18)</f>
         <v>11</v>
       </c>
       <c r="N19" s="10">
-        <f t="shared" ref="N19" si="2">SUM(N14:N18)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="O19" s="10">
-        <f t="shared" ref="O19" si="3">SUM(O14:O18)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="P19" s="10">
-        <f t="shared" ref="P19" si="4">SUM(P14:P18)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="Q19" s="10">
-        <f t="shared" ref="Q19" si="5">SUM(Q14:Q18)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="R19" s="10">
-        <f t="shared" ref="R19" si="6">SUM(R14:R18)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="S19" s="10">
-        <f t="shared" ref="S19" si="7">SUM(S14:S18)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="T19" s="10">
-        <f t="shared" ref="T19:AD19" si="8">SUM(T14:T18)</f>
+        <f t="shared" ref="T19:AD19" si="2">SUM(T14:T18)</f>
         <v>40</v>
       </c>
       <c r="U19" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="V19" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="W19" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="X19" s="10">
@@ -3917,27 +3918,27 @@
         <v>18</v>
       </c>
       <c r="Y19" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="Z19" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="AA19" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AB19" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="AC19" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="AD19" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
@@ -3949,63 +3950,63 @@
         <v>26</v>
       </c>
       <c r="C20" s="10">
-        <f>C19/C4</f>
+        <f t="shared" ref="C20:I20" si="3">C19/C4</f>
         <v>0.13600000000000001</v>
       </c>
       <c r="D20" s="10">
-        <f>D19/D4</f>
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E20" s="10">
-        <f t="shared" ref="E20:I20" si="9">E19/E4</f>
+        <f t="shared" si="3"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="F20" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.15107913669064749</v>
       </c>
       <c r="G20" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.6071428571428571</v>
       </c>
       <c r="H20" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>8.4905660377358486E-2</v>
       </c>
       <c r="I20" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>9.375E-2</v>
       </c>
       <c r="J20" s="10">
-        <f t="shared" ref="J20:Q20" si="10">J19/J4</f>
+        <f t="shared" ref="J20:Q20" si="4">J19/J4</f>
         <v>0.11764705882352941</v>
       </c>
       <c r="K20" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0.21359223300970873</v>
       </c>
       <c r="L20" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0.17699115044247787</v>
       </c>
       <c r="M20" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
       <c r="O20" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="P20" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0.32432432432432434</v>
       </c>
       <c r="Q20" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0.12790697674418605</v>
       </c>
       <c r="R20" s="10">
@@ -4013,51 +4014,51 @@
         <v>0.13924050632911392</v>
       </c>
       <c r="S20" s="10">
-        <f t="shared" ref="S20:AD20" si="11">S19/S4</f>
+        <f t="shared" ref="S20:AD20" si="5">S19/S4</f>
         <v>0.23728813559322035</v>
       </c>
       <c r="T20" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.18867924528301888</v>
       </c>
       <c r="U20" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.17322834645669291</v>
       </c>
       <c r="V20" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="W20" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.21126760563380281</v>
       </c>
       <c r="X20" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.21686746987951808</v>
       </c>
       <c r="Y20" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.36585365853658536</v>
       </c>
       <c r="Z20" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.46341463414634149</v>
       </c>
       <c r="AA20" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.3125</v>
       </c>
       <c r="AB20" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="AC20" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.22619047619047619</v>
       </c>
       <c r="AD20" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
     </row>
@@ -4852,8 +4853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD5F400-409A-0B4A-826F-7E5FE6579C80}">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="117" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="117" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6503,7 +6504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D0DEC6-391A-0147-B4F5-B4ED50B60C04}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="110" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
